--- a/cam2_validation_result.xlsx
+++ b/cam2_validation_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA69548-C610-4D73-A4E8-02A41EF6C557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706D8AC8-112F-445F-99EB-B7153DD55B56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8229" yWindow="3729" windowWidth="24685" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15257" yWindow="3086" windowWidth="16192" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/cam2_validation_result.xlsx
+++ b/cam2_validation_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706D8AC8-112F-445F-99EB-B7153DD55B56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45A7DA0-71D1-4252-95A8-F183C2CC0C37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15257" yWindow="3086" windowWidth="16192" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16774" yWindow="4500" windowWidth="16192" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,202 +247,202 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-16.07</c:v>
+                  <c:v>-15.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-13.95</c:v>
+                  <c:v>-14.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-11.93</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.93</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.93</c:v>
+                  <c:v>-8.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.93</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.93</c:v>
+                  <c:v>-3.97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.95</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.05</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0499999999999998</c:v>
+                  <c:v>2.0299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.05</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.07</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>8.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.02</c:v>
+                  <c:v>10.029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.02</c:v>
+                  <c:v>12.03</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.05</c:v>
+                  <c:v>14.03</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.07</c:v>
+                  <c:v>16.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-16.07</c:v>
+                  <c:v>-15.92</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-13.95</c:v>
+                  <c:v>-14.05</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-11.93</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-9.93</c:v>
+                  <c:v>-9.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7.93</c:v>
+                  <c:v>-8.1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-5.93</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.93</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.95</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.05</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.0499999999999998</c:v>
+                  <c:v>2.0299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.05</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.07</c:v>
+                  <c:v>6.03</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0500000000000007</c:v>
+                  <c:v>8.0299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.02</c:v>
+                  <c:v>10.050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12.02</c:v>
+                  <c:v>12.03</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>14.05</c:v>
+                  <c:v>14.03</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>16.07</c:v>
+                  <c:v>16.03</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-16.100000000000001</c:v>
+                  <c:v>-15.95</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-13.92</c:v>
+                  <c:v>-14.05</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-11.95</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-9.92</c:v>
+                  <c:v>-9.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-7.92</c:v>
+                  <c:v>-8.1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-5.92</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3.95</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.92</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.05</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.0499999999999998</c:v>
+                  <c:v>2.0299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.05</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.05</c:v>
+                  <c:v>6.03</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.0500000000000007</c:v>
+                  <c:v>8.0299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10.02</c:v>
+                  <c:v>10.029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>12.05</c:v>
+                  <c:v>12.03</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>14.05</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>16.05</c:v>
+                  <c:v>16.03</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-16.100000000000001</c:v>
+                  <c:v>-15.93</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-13.95</c:v>
+                  <c:v>-14.05</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-11.92</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-9.92</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-7.92</c:v>
+                  <c:v>-8.08</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-5.92</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-3.95</c:v>
+                  <c:v>-3.98</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.92</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.05</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.0499999999999998</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.05</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>8.0500000000000007</c:v>
@@ -451,67 +451,121 @@
                   <c:v>10.02</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>12.02</c:v>
+                  <c:v>12.05</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>14.08</c:v>
+                  <c:v>14.02</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>16.05</c:v>
+                  <c:v>16.02</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-16.07</c:v>
+                  <c:v>-15.95</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-13.95</c:v>
+                  <c:v>-14.03</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-11.92</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-9.92</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-7.95</c:v>
+                  <c:v>-8.08</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-5.92</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-3.92</c:v>
+                  <c:v>-3.98</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.95</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.08</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.02</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.08</c:v>
+                  <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.05</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>8.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>10</c:v>
+                  <c:v>10.02</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>12.05</c:v>
+                  <c:v>12.02</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>14.05</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>16.05</c:v>
+                  <c:v>16.02</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-15.95</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-14.05</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-9.98</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-8.08</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-3.98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.07</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>14.02</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>16.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -523,274 +577,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="180"/>
                 <c:pt idx="0">
-                  <c:v>0.16799847339916596</c:v>
+                  <c:v>-3.2289002203351629</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4642950556026335</c:v>
+                  <c:v>2.3189162717148974</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1774369501572437</c:v>
+                  <c:v>9.8801718942468142E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19601396888037925</c:v>
+                  <c:v>-0.65026335519632994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.1993988138874556</c:v>
+                  <c:v>-2.1625003623857992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.48982959080831279</c:v>
+                  <c:v>-2.4848922299916012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.0209220229103266</c:v>
+                  <c:v>-2.7261658033185086</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44469629992909177</c:v>
+                  <c:v>-3.2768280872701325</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43543779601668575</c:v>
+                  <c:v>-4.1258078733671937</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.31849907218565932</c:v>
+                  <c:v>-3.2911285481777668</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.34079793069031439</c:v>
+                  <c:v>-3.2801759432527433</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.3461932065183646E-2</c:v>
+                  <c:v>-3.6348244769765188</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.25715352208771947</c:v>
+                  <c:v>-3.7789419399523467</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.69134352274295452</c:v>
+                  <c:v>-5.2207449296370214</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.65111398463659498</c:v>
+                  <c:v>-4.0839424556070298</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.2672187289122121</c:v>
+                  <c:v>-4.4116650815522007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.36618301116095608</c:v>
+                  <c:v>-3.6058789143039576</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3988412351418447</c:v>
+                  <c:v>-2.172606220943635</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2919272774402089</c:v>
+                  <c:v>-2.4728482456521306</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0691686481304714</c:v>
+                  <c:v>2.6362428176685171</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.88097767624776679</c:v>
+                  <c:v>1.7578990686879479</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.48508140094963892</c:v>
+                  <c:v>-0.30393594053930428</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.29651475972787011</c:v>
+                  <c:v>-1.1982071398597327</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.0083458195531421</c:v>
+                  <c:v>-1.2220300108510855</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.1666642952950497</c:v>
+                  <c:v>-1.3348752896577025</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.6312449362376356E-2</c:v>
+                  <c:v>-1.834369957240142</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5.998182365874527E-2</c:v>
+                  <c:v>-2.1651105054238542</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2611667297160238</c:v>
+                  <c:v>-2.1559259301634484</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.84730254154101203</c:v>
+                  <c:v>-2.677010012527262</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.60243331846413639</c:v>
+                  <c:v>-2.4012327816003562</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-9.0987647727160947E-3</c:v>
+                  <c:v>-3.9891725648280953</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.97963459604216041</c:v>
+                  <c:v>-5.0764830507591796</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.25938477077261268</c:v>
+                  <c:v>-4.4360021829370453</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5330389620544338</c:v>
+                  <c:v>-5.0895790183903955</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.98074048741273145</c:v>
+                  <c:v>-4.5223877073221956</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.885213072577244</c:v>
+                  <c:v>-2.6921154642486727</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.73444504763074292</c:v>
+                  <c:v>-2.2353068579845967</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0883031485550418</c:v>
+                  <c:v>3.6751134506603194</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.41276628489595169</c:v>
+                  <c:v>0.86500196169572519</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.31034559557656394</c:v>
+                  <c:v>2.7176036688160821E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.11188158610093524</c:v>
+                  <c:v>-0.6810539738321495</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.7659957883943207</c:v>
+                  <c:v>-1.6558678078699813</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.126928833497459</c:v>
+                  <c:v>-0.68917118572198888</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.037531185122134</c:v>
+                  <c:v>-1.8927542222927514</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-6.6891451731862617E-2</c:v>
+                  <c:v>-1.4047360167892293</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-7.8436834423428081E-2</c:v>
+                  <c:v>-2.20152308391107</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.41567395782658423</c:v>
+                  <c:v>-1.7403320506964519</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.43655974373814388</c:v>
+                  <c:v>-3.1643731845515504</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.50482612200084986</c:v>
+                  <c:v>-2.9698736538553021</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.23724340218086581</c:v>
+                  <c:v>-3.671240754500559</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.17541924783790819</c:v>
+                  <c:v>-4.0749498393906833</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.66704346687538418</c:v>
+                  <c:v>-4.9987367487224219</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.8278123438590228</c:v>
+                  <c:v>-5.4388584932262347</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.7330697277025138</c:v>
+                  <c:v>-3.7355129297666281</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.9575606263279042E-2</c:v>
+                  <c:v>-1.865309703863204</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.86264485749825326</c:v>
+                  <c:v>3.7794817167964538</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.65463443898988771</c:v>
+                  <c:v>1.7644656501061036</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.41982799337984034</c:v>
+                  <c:v>5.3262329150129517E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.28777357377293811</c:v>
+                  <c:v>0.99200889364510658</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.1780711333794898</c:v>
+                  <c:v>-2.4687595850991784E-4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.20109824899009254</c:v>
+                  <c:v>-0.5935299782254333</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.21469528239731517</c:v>
+                  <c:v>-0.94838949794120708</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.75935492581083963</c:v>
+                  <c:v>-1.3900201094079421</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.1918686788012565E-2</c:v>
+                  <c:v>-1.7445836879978742</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.56233986555662341</c:v>
+                  <c:v>-1.9350973087489365</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.49423030842763183</c:v>
+                  <c:v>-2.2579240782765737</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.2263838663734532</c:v>
+                  <c:v>-2.4162808868022694</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.24150270250356698</c:v>
+                  <c:v>-3.9562444796670206</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.57080423944580616</c:v>
+                  <c:v>-5.0814439314326592</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.36978316641443598</c:v>
+                  <c:v>-5.3649758351007222</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.45442476767857443</c:v>
+                  <c:v>-5.0997677290474712</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.90901943595827106</c:v>
+                  <c:v>-4.2797896757156195</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.5404509549703107</c:v>
+                  <c:v>-0.65210237531255189</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.13214560659025665</c:v>
+                  <c:v>3.1005349103184017</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.73463873455466455</c:v>
+                  <c:v>0.60942762057766231</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.88653490273054558</c:v>
+                  <c:v>0.11369582767110842</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-1.298947106846299</c:v>
+                  <c:v>0.80497878586675142</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.47116585713274617</c:v>
+                  <c:v>-0.27872370281556869</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.28286130868900727</c:v>
+                  <c:v>-0.20550875259459644</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.4221705674790428E-2</c:v>
+                  <c:v>-0.98590780716585869</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.67649706572046853</c:v>
+                  <c:v>-0.7058710627675282</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.7770812095141082</c:v>
+                  <c:v>-0.50684779882294606</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.53977606418357027</c:v>
+                  <c:v>-1.8529321376263397</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.1853336600343027</c:v>
+                  <c:v>-2.4471319902631876</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.49675900277043183</c:v>
+                  <c:v>-3.0019479906131892</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.2782760341406174</c:v>
+                  <c:v>-4.4502601993563076</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.57360572759125716</c:v>
+                  <c:v>-5.0543929129771641</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.52707243627082789</c:v>
+                  <c:v>-6.5012205164598527</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.46146365875029005</c:v>
+                  <c:v>-7.3524488308357832</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.63028248941009224</c:v>
+                  <c:v>-6.427648040654276</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.1585739727079272</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.1724425970724042</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.3501160271448498</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.0723342659789523</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.60061454656761271</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.3108627248529956</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.25676473217572493</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1.1109483918048682</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-1.5561576735640301</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1.512751467230828</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-2.0274834426400048</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-3.247783707779945</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-3.5492490240212646</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-5.4797555696973177</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-6.6333556913705252</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-8.5169923738963007</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-8.7772063939969485</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-8.896156950816021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2543,7 +2651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:I6"/>
@@ -2573,1832 +2681,2192 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2550.0679984733993</v>
+        <v>2497.9710997796647</v>
       </c>
       <c r="D2">
-        <v>-6.814154166971173E-2</v>
+        <v>9.4057118360399608E-2</v>
       </c>
       <c r="E2">
-        <v>0.16799847339916596</v>
+        <v>-3.2289002203351629</v>
       </c>
       <c r="F2">
-        <v>-6.814154166971173E-2</v>
+        <v>9.4057118360399608E-2</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>0.62555555220095205</v>
+        <v>2.726332847753139</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B3">
-        <v>-16.07</v>
+        <v>-15.93</v>
       </c>
       <c r="C3">
-        <v>2551.3642950556027</v>
+        <v>2503.5189162717147</v>
       </c>
       <c r="D3">
-        <v>-15.972448191702409</v>
+        <v>-15.460604034653223</v>
       </c>
       <c r="E3">
-        <v>1.4642950556026335</v>
+        <v>2.3189162717148974</v>
       </c>
       <c r="F3">
-        <v>9.7551808297591691E-2</v>
+        <v>0.46939596534677719</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="I3">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B4">
-        <v>-13.95</v>
+        <v>-14.02</v>
       </c>
       <c r="C4">
-        <v>2550.0774369501573</v>
+        <v>2501.2988017189423</v>
       </c>
       <c r="D4">
-        <v>-13.880311139501295</v>
+        <v>-13.632194267733002</v>
       </c>
       <c r="E4">
-        <v>0.1774369501572437</v>
+        <v>9.8801718942468142E-2</v>
       </c>
       <c r="F4">
-        <v>6.9688860498704486E-2</v>
+        <v>0.38780573226699744</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B5">
-        <v>-11.93</v>
+        <v>-12</v>
       </c>
       <c r="C5">
-        <v>2550.0960139688805</v>
+        <v>2500.5497366448035</v>
       </c>
       <c r="D5">
-        <v>-11.901602041404283</v>
+        <v>-11.686015234627623</v>
       </c>
       <c r="E5">
-        <v>0.19601396888037925</v>
+        <v>-0.65026335519632994</v>
       </c>
       <c r="F5">
-        <v>2.8397958595716588E-2</v>
+        <v>0.31398476537237663</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5">
-        <v>0.97777777777777775</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B6">
-        <v>-9.93</v>
+        <v>-10</v>
       </c>
       <c r="C6">
-        <v>2548.7006011861126</v>
+        <v>2499.037499637614</v>
       </c>
       <c r="D6">
-        <v>-9.9331110793079311</v>
+        <v>-9.757714947390923</v>
       </c>
       <c r="E6">
-        <v>-1.1993988138874556</v>
+        <v>-2.1625003623857992</v>
       </c>
       <c r="F6">
-        <v>-3.1110793079314192E-3</v>
+        <v>0.24228505260907696</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>1.3988412351418447</v>
+        <v>6.5012205164598527</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B7">
-        <v>-7.93</v>
+        <v>-8.1</v>
       </c>
       <c r="C7">
-        <v>2549.4101704091918</v>
+        <v>2498.7151077700082</v>
       </c>
       <c r="D7">
-        <v>-7.9574422078710052</v>
+        <v>-7.7820686145149551</v>
       </c>
       <c r="E7">
-        <v>-0.48982959080831279</v>
+        <v>-2.4848922299916012</v>
       </c>
       <c r="F7">
-        <v>-2.7442207871005486E-2</v>
+        <v>0.31793138548504452</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B8">
-        <v>-5.93</v>
+        <v>-6</v>
       </c>
       <c r="C8">
-        <v>2548.8790779770898</v>
+        <v>2498.4738341966813</v>
       </c>
       <c r="D8">
-        <v>-5.9797937096524381</v>
+        <v>-5.7383431501144333</v>
       </c>
       <c r="E8">
-        <v>-1.0209220229103266</v>
+        <v>-2.7261658033185086</v>
       </c>
       <c r="F8">
-        <v>-4.9793709652438345E-2</v>
+        <v>0.2616568498855667</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B9">
-        <v>-3.93</v>
+        <v>-3.97</v>
       </c>
       <c r="C9">
-        <v>2550.3446962999292</v>
+        <v>2497.9231719127297</v>
       </c>
       <c r="D9">
-        <v>-4.0047542830903406</v>
+        <v>-3.7830216084019241</v>
       </c>
       <c r="E9">
-        <v>0.44469629992909177</v>
+        <v>-3.2768280872701325</v>
       </c>
       <c r="F9">
-        <v>-7.475428309034049E-2</v>
+        <v>0.18697839159807605</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B10">
-        <v>-1.95</v>
+        <v>-2</v>
       </c>
       <c r="C10">
-        <v>2550.3354377960168</v>
+        <v>2497.0741921266326</v>
       </c>
       <c r="D10">
-        <v>-2.0112953574639896</v>
+        <v>-1.8351963531036837</v>
       </c>
       <c r="E10">
-        <v>0.43543779601668575</v>
+        <v>-4.1258078733671937</v>
       </c>
       <c r="F10">
-        <v>-6.1295357463989619E-2</v>
+        <v>0.16480364689631632</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B11">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="C11">
-        <v>2549.5815009278144</v>
+        <v>2497.9088714518221</v>
       </c>
       <c r="D11">
-        <v>1.6758758023797279E-2</v>
+        <v>0.14018315551536251</v>
       </c>
       <c r="E11">
-        <v>-0.31849907218565932</v>
+        <v>-3.2911285481777668</v>
       </c>
       <c r="F11">
-        <v>-3.3241241976202721E-2</v>
+        <v>0.11018315551536251</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B12">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C12">
-        <v>2549.5592020693098</v>
+        <v>2497.9198240567471</v>
       </c>
       <c r="D12">
-        <v>2.0313342217852424</v>
+        <v>2.0695046130853436</v>
       </c>
       <c r="E12">
-        <v>-0.34079793069031439</v>
+        <v>-3.2801759432527433</v>
       </c>
       <c r="F12">
-        <v>-1.8665778214757456E-2</v>
+        <v>3.9504613085343809E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B13">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="C13">
-        <v>2549.8865380679349</v>
+        <v>2497.5651755230233</v>
       </c>
       <c r="D13">
-        <v>4.0352314381755248</v>
+        <v>3.9994968378201499</v>
       </c>
       <c r="E13">
-        <v>-1.3461932065183646E-2</v>
+        <v>-3.6348244769765188</v>
       </c>
       <c r="F13">
-        <v>-1.4768561824475057E-2</v>
+        <v>-3.0503162179850385E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B14">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>2549.6428464779124</v>
+        <v>2497.4210580600475</v>
       </c>
       <c r="D14">
-        <v>6.0506210085202579</v>
+        <v>5.9407778999529137</v>
       </c>
       <c r="E14">
-        <v>-0.25715352208771947</v>
+        <v>-3.7789419399523467</v>
       </c>
       <c r="F14">
-        <v>-1.9378991479742425E-2</v>
+        <v>-5.9222100047086279E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B15">
         <v>8.0500000000000007</v>
       </c>
       <c r="C15">
-        <v>2550.591343522743</v>
+        <v>2495.9792550703628</v>
       </c>
       <c r="D15">
-        <v>8.032321385970965</v>
+        <v>7.8996198938521713</v>
       </c>
       <c r="E15">
-        <v>0.69134352274295452</v>
+        <v>-5.2207449296370214</v>
       </c>
       <c r="F15">
-        <v>-1.76786140290357E-2</v>
+        <v>-0.15038010614782937</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B16">
-        <v>10.02</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="C16">
-        <v>2549.2488860153635</v>
+        <v>2497.1160575443928</v>
       </c>
       <c r="D16">
-        <v>10.038629953569535</v>
+        <v>9.7927868687830273</v>
       </c>
       <c r="E16">
-        <v>-0.65111398463659498</v>
+        <v>-4.0839424556070298</v>
       </c>
       <c r="F16">
-        <v>1.8629953569535118E-2</v>
+        <v>-0.23721313121697207</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B17">
-        <v>12.02</v>
+        <v>12.03</v>
       </c>
       <c r="C17">
-        <v>2549.6327812710879</v>
+        <v>2496.7883349184476</v>
       </c>
       <c r="D17">
-        <v>12.041999604362957</v>
+        <v>11.709869453153017</v>
       </c>
       <c r="E17">
-        <v>-0.2672187289122121</v>
+        <v>-4.4116650815522007</v>
       </c>
       <c r="F17">
-        <v>2.1999604362957115E-2</v>
+        <v>-0.32013054684698261</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B18">
-        <v>14.05</v>
+        <v>14.03</v>
       </c>
       <c r="C18">
-        <v>2550.266183011161</v>
+        <v>2497.5941210856959</v>
       </c>
       <c r="D18">
-        <v>14.064673297017617</v>
+        <v>13.618511382505531</v>
       </c>
       <c r="E18">
-        <v>0.36618301116095608</v>
+        <v>-3.6058789143039576</v>
       </c>
       <c r="F18">
-        <v>1.4673297017615994E-2</v>
+        <v>-0.4114886174944683</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2549.9</v>
+        <v>2501.1999999999998</v>
       </c>
       <c r="B19">
-        <v>16.07</v>
+        <v>16.02</v>
       </c>
       <c r="C19">
-        <v>2551.2988412351419</v>
+        <v>2499.0273937790562</v>
       </c>
       <c r="D19">
-        <v>16.030119203666171</v>
+        <v>15.504505369831096</v>
       </c>
       <c r="E19">
-        <v>1.3988412351418447</v>
+        <v>-2.172606220943635</v>
       </c>
       <c r="F19">
-        <v>-3.9880796333829238E-2</v>
+        <v>-0.51549463016890407</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2650.8919272774401</v>
+        <v>2598.427151754348</v>
       </c>
       <c r="D20">
-        <v>-7.1762422594998904E-2</v>
+        <v>9.628380692045041E-2</v>
       </c>
       <c r="E20">
-        <v>1.2919272774402089</v>
+        <v>-2.4728482456521306</v>
       </c>
       <c r="F20">
-        <v>-7.1762422594998904E-2</v>
+        <v>9.628380692045041E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B21">
-        <v>-16.07</v>
+        <v>-15.92</v>
       </c>
       <c r="C21">
-        <v>2651.6691686481304</v>
+        <v>2603.5362428176686</v>
       </c>
       <c r="D21">
-        <v>-15.99441948030246</v>
+        <v>-15.468905212458472</v>
       </c>
       <c r="E21">
-        <v>2.0691686481304714</v>
+        <v>2.6362428176685171</v>
       </c>
       <c r="F21">
-        <v>7.5580519697540538E-2</v>
+        <v>0.45109478754152832</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B22">
-        <v>-13.95</v>
+        <v>-14.05</v>
       </c>
       <c r="C22">
-        <v>2650.4809776762477</v>
+        <v>2602.657899068688</v>
       </c>
       <c r="D22">
-        <v>-13.88226071365853</v>
+        <v>-13.620887726551759</v>
       </c>
       <c r="E22">
-        <v>0.88097767624776679</v>
+        <v>1.7578990686879479</v>
       </c>
       <c r="F22">
-        <v>6.7739286341469196E-2</v>
+        <v>0.42911227344824177</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B23">
-        <v>-11.93</v>
+        <v>-12</v>
       </c>
       <c r="C23">
-        <v>2650.0850814009495</v>
+        <v>2600.5960640594608</v>
       </c>
       <c r="D23">
-        <v>-11.905994895983996</v>
+        <v>-11.670769305884766</v>
       </c>
       <c r="E23">
-        <v>0.48508140094963892</v>
+        <v>-0.30393594053930428</v>
       </c>
       <c r="F23">
-        <v>2.4005104016003642E-2</v>
+        <v>0.32923069411523365</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B24">
-        <v>-9.93</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="C24">
-        <v>2649.8965147597278</v>
+        <v>2599.7017928601404</v>
       </c>
       <c r="D24">
-        <v>-9.9313792009140673</v>
+        <v>-9.7299070740641103</v>
       </c>
       <c r="E24">
-        <v>0.29651475972787011</v>
+        <v>-1.1982071398597327</v>
       </c>
       <c r="F24">
-        <v>-1.3792009140676242E-3</v>
+        <v>0.24009292593589038</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B25">
-        <v>-7.93</v>
+        <v>-8.1</v>
       </c>
       <c r="C25">
-        <v>2648.5916541804468</v>
+        <v>2599.677969989149</v>
       </c>
       <c r="D25">
-        <v>-7.9597177208778991</v>
+        <v>-7.8074803934803931</v>
       </c>
       <c r="E25">
-        <v>-1.0083458195531421</v>
+        <v>-1.2220300108510855</v>
       </c>
       <c r="F25">
-        <v>-2.9717720877899367E-2</v>
+        <v>0.29251960651960651</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B26">
-        <v>-5.93</v>
+        <v>-6</v>
       </c>
       <c r="C26">
-        <v>2648.4333357047049</v>
+        <v>2599.5651247103424</v>
       </c>
       <c r="D26">
-        <v>-5.9895275305993163</v>
+        <v>-5.7717924065808406</v>
       </c>
       <c r="E26">
-        <v>-1.1666642952950497</v>
+        <v>-1.3348752896577025</v>
       </c>
       <c r="F26">
-        <v>-5.9527530599316592E-2</v>
+        <v>0.22820759341915942</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B27">
-        <v>-3.93</v>
+        <v>-4</v>
       </c>
       <c r="C27">
-        <v>2649.6763124493623</v>
+        <v>2599.0656300427599</v>
       </c>
       <c r="D27">
-        <v>-3.9993389489405473</v>
+        <v>-3.8010936924134646</v>
       </c>
       <c r="E27">
-        <v>7.6312449362376356E-2</v>
+        <v>-1.834369957240142</v>
       </c>
       <c r="F27">
-        <v>-6.9338948940547152E-2</v>
+        <v>0.19890630758653538</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B28">
-        <v>-1.95</v>
+        <v>-2</v>
       </c>
       <c r="C28">
-        <v>2649.5400181763412</v>
+        <v>2598.7348894945762</v>
       </c>
       <c r="D28">
-        <v>-2.014042857586769</v>
+        <v>-1.8213767407781993</v>
       </c>
       <c r="E28">
-        <v>-5.998182365874527E-2</v>
+        <v>-2.1651105054238542</v>
       </c>
       <c r="F28">
-        <v>-6.4042857586769086E-2</v>
+        <v>0.17862325922180067</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B29">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="C29">
-        <v>2650.8611667297159</v>
+        <v>2598.7440740698366</v>
       </c>
       <c r="D29">
-        <v>5.8635196361749298E-3</v>
+        <v>0.13882149712679401</v>
       </c>
       <c r="E29">
-        <v>1.2611667297160238</v>
+        <v>-2.1559259301634484</v>
       </c>
       <c r="F29">
-        <v>-4.4136480363825073E-2</v>
+        <v>0.10882149712679401</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B30">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C30">
-        <v>2650.4473025415409</v>
+        <v>2598.2229899874728</v>
       </c>
       <c r="D30">
-        <v>2.0188068559120369</v>
+        <v>2.0763313512500443</v>
       </c>
       <c r="E30">
-        <v>0.84730254154101203</v>
+        <v>-2.677010012527262</v>
       </c>
       <c r="F30">
-        <v>-3.1193144087962921E-2</v>
+        <v>4.6331351250044506E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B31">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="C31">
-        <v>2650.202433318464</v>
+        <v>2598.4987672183997</v>
       </c>
       <c r="D31">
-        <v>4.0290698665036331</v>
+        <v>4.0088374335342882</v>
       </c>
       <c r="E31">
-        <v>0.60243331846413639</v>
+        <v>-2.4012327816003562</v>
       </c>
       <c r="F31">
-        <v>-2.0930133496366743E-2</v>
+        <v>-2.1162566465712018E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B32">
-        <v>6.07</v>
+        <v>6.03</v>
       </c>
       <c r="C32">
-        <v>2649.5909012352272</v>
+        <v>2596.910827435172</v>
       </c>
       <c r="D32">
-        <v>6.0453066408791232</v>
+        <v>5.9515258130255075</v>
       </c>
       <c r="E32">
-        <v>-9.0987647727160947E-3</v>
+        <v>-3.9891725648280953</v>
       </c>
       <c r="F32">
-        <v>-2.4693359120877112E-2</v>
+        <v>-7.847418697449271E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B33">
-        <v>8.0500000000000007</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="C33">
-        <v>2648.6203654039577</v>
+        <v>2595.8235169492409</v>
       </c>
       <c r="D33">
-        <v>8.019111192182768</v>
+        <v>7.8877731569310088</v>
       </c>
       <c r="E33">
-        <v>-0.97963459604216041</v>
+        <v>-5.0764830507591796</v>
       </c>
       <c r="F33">
-        <v>-3.0888807817232689E-2</v>
+        <v>-0.14222684306899058</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B34">
-        <v>10.02</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="C34">
-        <v>2649.8593847707725</v>
+        <v>2596.463997817063</v>
       </c>
       <c r="D34">
-        <v>10.013474053281548</v>
+        <v>9.8247742067493125</v>
       </c>
       <c r="E34">
-        <v>0.25938477077261268</v>
+        <v>-4.4360021829370453</v>
       </c>
       <c r="F34">
-        <v>-6.5259467184510811E-3</v>
+        <v>-0.22522579325068826</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B35">
-        <v>12.02</v>
+        <v>12.03</v>
       </c>
       <c r="C35">
-        <v>2650.1330389620543</v>
+        <v>2595.8104209816097</v>
       </c>
       <c r="D35">
-        <v>12.034481246754151</v>
+        <v>11.71934611863513</v>
       </c>
       <c r="E35">
-        <v>0.5330389620544338</v>
+        <v>-5.0895790183903955</v>
       </c>
       <c r="F35">
-        <v>1.44812467541513E-2</v>
+        <v>-0.31065388136486938</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B36">
-        <v>14.05</v>
+        <v>14.03</v>
       </c>
       <c r="C36">
-        <v>2650.5807404874126</v>
+        <v>2596.3776122926779</v>
       </c>
       <c r="D36">
-        <v>14.033319300782855</v>
+        <v>13.619651686462811</v>
       </c>
       <c r="E36">
-        <v>0.98074048741273145</v>
+        <v>-4.5223877073221956</v>
       </c>
       <c r="F36">
-        <v>-1.6680699217145545E-2</v>
+        <v>-0.41034831353718815</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2649.6</v>
+        <v>2600.9</v>
       </c>
       <c r="B37">
-        <v>16.07</v>
+        <v>16.03</v>
       </c>
       <c r="C37">
-        <v>2651.4852130725772</v>
+        <v>2598.2078845357514</v>
       </c>
       <c r="D37">
-        <v>15.991333790690375</v>
+        <v>15.506943725147183</v>
       </c>
       <c r="E37">
-        <v>1.885213072577244</v>
+        <v>-2.6921154642486727</v>
       </c>
       <c r="F37">
-        <v>-7.8666209309625756E-2</v>
+        <v>-0.52305627485281825</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2750.0344450476309</v>
+        <v>2698.3646931420153</v>
       </c>
       <c r="D38">
-        <v>-6.5158249838686913E-2</v>
+        <v>8.2663780661254668E-2</v>
       </c>
       <c r="E38">
-        <v>0.73444504763074292</v>
+        <v>-2.2353068579845967</v>
       </c>
       <c r="F38">
-        <v>-6.5158249838686913E-2</v>
+        <v>8.2663780661254668E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B39">
-        <v>-16.100000000000001</v>
+        <v>-15.95</v>
       </c>
       <c r="C39">
-        <v>2750.3883031485552</v>
+        <v>2704.2751134506602</v>
       </c>
       <c r="D39">
-        <v>-15.992501409887169</v>
+        <v>-15.498601862143511</v>
       </c>
       <c r="E39">
-        <v>1.0883031485550418</v>
+        <v>3.6751134506603194</v>
       </c>
       <c r="F39">
-        <v>0.10749859011283291</v>
+        <v>0.45139813785648819</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B40">
-        <v>-13.92</v>
+        <v>-14.05</v>
       </c>
       <c r="C40">
-        <v>2749.7127662848961</v>
+        <v>2701.4650019616956</v>
       </c>
       <c r="D40">
-        <v>-13.85929080052221</v>
+        <v>-13.646963305761938</v>
       </c>
       <c r="E40">
-        <v>0.41276628489595169</v>
+        <v>0.86500196169572519</v>
       </c>
       <c r="F40">
-        <v>6.0709199477789966E-2</v>
+        <v>0.40303669423806276</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B41">
-        <v>-11.95</v>
+        <v>-12</v>
       </c>
       <c r="C41">
-        <v>2749.6103455955767</v>
+        <v>2700.6271760366881</v>
       </c>
       <c r="D41">
-        <v>-11.910446937049237</v>
+        <v>-11.669886503780587</v>
       </c>
       <c r="E41">
-        <v>0.31034559557656394</v>
+        <v>2.7176036688160821E-2</v>
       </c>
       <c r="F41">
-        <v>3.9553062950762552E-2</v>
+        <v>0.33011349621941299</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B42">
-        <v>-9.92</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="C42">
-        <v>2749.1881184138992</v>
+        <v>2699.9189460261678</v>
       </c>
       <c r="D42">
-        <v>-9.9214036279151809</v>
+        <v>-9.7380126567007164</v>
       </c>
       <c r="E42">
-        <v>-0.11188158610093524</v>
+        <v>-0.6810539738321495</v>
       </c>
       <c r="F42">
-        <v>-1.4036279151810049E-3</v>
+        <v>0.23198734329928428</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B43">
-        <v>-7.92</v>
+        <v>-8.1</v>
       </c>
       <c r="C43">
-        <v>2748.5340042116059</v>
+        <v>2698.9441321921299</v>
       </c>
       <c r="D43">
-        <v>-7.9384408828953026</v>
+        <v>-7.8161689945170716</v>
       </c>
       <c r="E43">
-        <v>-0.7659957883943207</v>
+        <v>-1.6558678078699813</v>
       </c>
       <c r="F43">
-        <v>-1.8440882895302657E-2</v>
+        <v>0.28383100548292806</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B44">
-        <v>-5.92</v>
+        <v>-6</v>
       </c>
       <c r="C44">
-        <v>2748.1730711665027</v>
+        <v>2699.9108288142779</v>
       </c>
       <c r="D44">
-        <v>-5.964216549793953</v>
+        <v>-5.7697791894140913</v>
       </c>
       <c r="E44">
-        <v>-1.126928833497459</v>
+        <v>-0.68917118572198888</v>
       </c>
       <c r="F44">
-        <v>-4.4216549793953064E-2</v>
+        <v>0.23022081058590871</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B45">
-        <v>-3.95</v>
+        <v>-4</v>
       </c>
       <c r="C45">
-        <v>2750.3375311851223</v>
+        <v>2698.7072457777072</v>
       </c>
       <c r="D45">
-        <v>-3.9930249335582815</v>
+        <v>-3.8068479635686243</v>
       </c>
       <c r="E45">
-        <v>1.037531185122134</v>
+        <v>-1.8927542222927514</v>
       </c>
       <c r="F45">
-        <v>-4.3024933558281298E-2</v>
+        <v>0.19315203643137568</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B46">
-        <v>-1.92</v>
+        <v>-2</v>
       </c>
       <c r="C46">
-        <v>2749.2331085482683</v>
+        <v>2699.1952639832107</v>
       </c>
       <c r="D46">
-        <v>-1.9748945154145781</v>
+        <v>-1.8322595553550183</v>
       </c>
       <c r="E46">
-        <v>-6.6891451731862617E-2</v>
+        <v>-1.4047360167892293</v>
       </c>
       <c r="F46">
-        <v>-5.4894515414578127E-2</v>
+        <v>0.16774044464498172</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B47">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="C47">
-        <v>2749.2215631655768</v>
+        <v>2698.3984769160888</v>
       </c>
       <c r="D47">
-        <v>2.0980630699160244E-2</v>
+        <v>0.13825741792637172</v>
       </c>
       <c r="E47">
-        <v>-7.8436834423428081E-2</v>
+        <v>-2.20152308391107</v>
       </c>
       <c r="F47">
-        <v>-2.9019369300839759E-2</v>
+        <v>0.10825741792637172</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B48">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C48">
-        <v>2748.8843260421736</v>
+        <v>2698.8596679493035</v>
       </c>
       <c r="D48">
-        <v>2.0388453921972678</v>
+        <v>2.0832253581503037</v>
       </c>
       <c r="E48">
-        <v>-0.41567395782658423</v>
+        <v>-1.7403320506964519</v>
       </c>
       <c r="F48">
-        <v>-1.1154607802732031E-2</v>
+        <v>5.3225358150303936E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B49">
-        <v>4.05</v>
+        <v>4.03</v>
       </c>
       <c r="C49">
-        <v>2748.863440256262</v>
+        <v>2697.4356268154484</v>
       </c>
       <c r="D49">
-        <v>4.0365481139314303</v>
+        <v>4.0226633667570342</v>
       </c>
       <c r="E49">
-        <v>-0.43655974373814388</v>
+        <v>-3.1643731845515504</v>
       </c>
       <c r="F49">
-        <v>-1.3451886068569507E-2</v>
+        <v>-7.336633242966073E-3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B50">
-        <v>6.05</v>
+        <v>6.03</v>
       </c>
       <c r="C50">
-        <v>2748.7951738779993</v>
+        <v>2697.6301263461446</v>
       </c>
       <c r="D50">
-        <v>6.0530636272077754</v>
+        <v>5.9645049572753654</v>
       </c>
       <c r="E50">
-        <v>-0.50482612200084986</v>
+        <v>-2.9698736538553021</v>
       </c>
       <c r="F50">
-        <v>3.0636272077755322E-3</v>
+        <v>-6.54950427246348E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B51">
-        <v>8.0500000000000007</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="C51">
-        <v>2749.537243402181</v>
+        <v>2696.9287592454994</v>
       </c>
       <c r="D51">
-        <v>8.0531775020441732</v>
+        <v>7.9027294558291512</v>
       </c>
       <c r="E51">
-        <v>0.23724340218086581</v>
+        <v>-3.671240754500559</v>
       </c>
       <c r="F51">
-        <v>3.1775020441724422E-3</v>
+        <v>-0.12727054417084815</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B52">
-        <v>10.02</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="C52">
-        <v>2749.4754192478381</v>
+        <v>2696.5250501606092</v>
       </c>
       <c r="D52">
-        <v>10.043978952155921</v>
+        <v>9.82812257701198</v>
       </c>
       <c r="E52">
-        <v>0.17541924783790819</v>
+        <v>-4.0749498393906833</v>
       </c>
       <c r="F52">
-        <v>2.3978952155921718E-2</v>
+        <v>-0.20187742298801936</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B53">
-        <v>12.05</v>
+        <v>12.03</v>
       </c>
       <c r="C53">
-        <v>2749.9670434668756</v>
+        <v>2695.6012632512775</v>
       </c>
       <c r="D53">
-        <v>12.04992311662285</v>
+        <v>11.7501457143537</v>
       </c>
       <c r="E53">
-        <v>0.66704346687538418</v>
+        <v>-4.9987367487224219</v>
       </c>
       <c r="F53">
-        <v>-7.6883377150949173E-5</v>
+        <v>-0.27985428564629977</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B54">
         <v>14.05</v>
       </c>
       <c r="C54">
-        <v>2750.1278123438592</v>
+        <v>2695.1611415067737</v>
       </c>
       <c r="D54">
-        <v>14.033133615893421</v>
+        <v>13.671287143105722</v>
       </c>
       <c r="E54">
-        <v>0.8278123438590228</v>
+        <v>-5.4388584932262347</v>
       </c>
       <c r="F54">
-        <v>-1.6866384106579702E-2</v>
+        <v>-0.37871285689427836</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2749.3</v>
+        <v>2700.6</v>
       </c>
       <c r="B55">
-        <v>16.05</v>
+        <v>16.03</v>
       </c>
       <c r="C55">
-        <v>2752.0330697277027</v>
+        <v>2696.8644870702333</v>
       </c>
       <c r="D55">
-        <v>16.001342797999666</v>
+        <v>15.536416700052326</v>
       </c>
       <c r="E55">
-        <v>2.7330697277025138</v>
+        <v>-3.7355129297666281</v>
       </c>
       <c r="F55">
-        <v>-4.8657202000335076E-2</v>
+        <v>-0.4935832999476748</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2849.0295756062633</v>
+        <v>2798.434690296137</v>
       </c>
       <c r="D56">
-        <v>-5.9104172396343087E-2</v>
+        <v>6.9109657934938673E-2</v>
       </c>
       <c r="E56">
-        <v>2.9575606263279042E-2</v>
+        <v>-1.865309703863204</v>
       </c>
       <c r="F56">
-        <v>-5.9104172396343087E-2</v>
+        <v>6.9109657934938673E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B57">
-        <v>-16.100000000000001</v>
+        <v>-15.93</v>
       </c>
       <c r="C57">
-        <v>2849.8626448574983</v>
+        <v>2804.0794817167966</v>
       </c>
       <c r="D57">
-        <v>-15.991711418703435</v>
+        <v>-15.516553905808024</v>
       </c>
       <c r="E57">
-        <v>0.86264485749825326</v>
+        <v>3.7794817167964538</v>
       </c>
       <c r="F57">
-        <v>0.10828858129656638</v>
+        <v>0.41344609419197553</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B58">
-        <v>-13.95</v>
+        <v>-14.05</v>
       </c>
       <c r="C58">
-        <v>2849.6546344389899</v>
+        <v>2802.0644656501063</v>
       </c>
       <c r="D58">
-        <v>-13.858175549023692</v>
+        <v>-13.686321636024344</v>
       </c>
       <c r="E58">
-        <v>0.65463443898988771</v>
+        <v>1.7644656501061036</v>
       </c>
       <c r="F58">
-        <v>9.1824450976307759E-2</v>
+        <v>0.36367836397565689</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B59">
-        <v>-11.92</v>
+        <v>-12</v>
       </c>
       <c r="C59">
-        <v>2848.5801720066202</v>
+        <v>2800.3532623291503</v>
       </c>
       <c r="D59">
-        <v>-11.883954929089816</v>
+        <v>-11.713859016439152</v>
       </c>
       <c r="E59">
-        <v>-0.41982799337984034</v>
+        <v>5.3262329150129517E-2</v>
       </c>
       <c r="F59">
-        <v>3.6045070910184052E-2</v>
+        <v>0.28614098356084838</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B60">
-        <v>-9.92</v>
+        <v>-10</v>
       </c>
       <c r="C60">
-        <v>2848.7122264262271</v>
+        <v>2801.2920088936453</v>
       </c>
       <c r="D60">
-        <v>-9.9200459699528842</v>
+        <v>-9.786017492566689</v>
       </c>
       <c r="E60">
-        <v>-0.28777357377293811</v>
+        <v>0.99200889364510658</v>
       </c>
       <c r="F60">
-        <v>-4.5969952884306053E-5</v>
+        <v>0.21398250743331104</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B61">
-        <v>-7.92</v>
+        <v>-8.08</v>
       </c>
       <c r="C61">
-        <v>2847.8219288666205</v>
+        <v>2800.2997531240417</v>
       </c>
       <c r="D61">
-        <v>-7.9351464135209353</v>
+        <v>-7.8206361991808695</v>
       </c>
       <c r="E61">
-        <v>-1.1780711333794898</v>
+        <v>-2.4687595850991784E-4</v>
       </c>
       <c r="F61">
-        <v>-1.5146413520935376E-2</v>
+        <v>0.25936380081913057</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B62">
-        <v>-5.92</v>
+        <v>-6</v>
       </c>
       <c r="C62">
-        <v>2849.2010982489901</v>
+        <v>2799.7064700217747</v>
       </c>
       <c r="D62">
-        <v>-5.9563407348131472</v>
+        <v>-5.8107969263145733</v>
       </c>
       <c r="E62">
-        <v>0.20109824899009254</v>
+        <v>-0.5935299782254333</v>
       </c>
       <c r="F62">
-        <v>-3.6340734813147257E-2</v>
+        <v>0.18920307368542666</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B63">
-        <v>-3.95</v>
+        <v>-3.98</v>
       </c>
       <c r="C63">
-        <v>2848.7853047176027</v>
+        <v>2799.351610502059</v>
       </c>
       <c r="D63">
-        <v>-3.9760203734151429</v>
+        <v>-3.8346578847867598</v>
       </c>
       <c r="E63">
-        <v>-0.21469528239731517</v>
+        <v>-0.94838949794120708</v>
       </c>
       <c r="F63">
-        <v>-2.6020373415142739E-2</v>
+        <v>0.14534211521324014</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B64">
-        <v>-1.92</v>
+        <v>-2</v>
       </c>
       <c r="C64">
-        <v>2848.2406450741892</v>
+        <v>2798.9099798905922</v>
       </c>
       <c r="D64">
-        <v>-1.9688251332503792</v>
+        <v>-1.8935440237855918</v>
       </c>
       <c r="E64">
-        <v>-0.75935492581083963</v>
+        <v>-1.3900201094079421</v>
       </c>
       <c r="F64">
-        <v>-4.8825133250379293E-2</v>
+        <v>0.10645597621440817</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B65">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C65">
-        <v>2849.021918686788</v>
+        <v>2798.5554163120023</v>
       </c>
       <c r="D65">
-        <v>3.3191871583026708E-2</v>
+        <v>8.6712957357315518E-2</v>
       </c>
       <c r="E65">
-        <v>2.1918686788012565E-2</v>
+        <v>-1.7445836879978742</v>
       </c>
       <c r="F65">
-        <v>-1.6808128416973295E-2</v>
+        <v>6.6712957357315514E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B66">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>2849.5623398655566</v>
+        <v>2798.3649026912512</v>
       </c>
       <c r="D66">
-        <v>2.0385433758707872</v>
+        <v>2.0311069448502712</v>
       </c>
       <c r="E66">
-        <v>0.56233986555662341</v>
+        <v>-1.9350973087489365</v>
       </c>
       <c r="F66">
-        <v>-1.1456624129212667E-2</v>
+        <v>3.1106944850271212E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B67">
         <v>4.05</v>
       </c>
       <c r="C67">
-        <v>2849.4942303084276</v>
+        <v>2798.0420759217236</v>
       </c>
       <c r="D67">
-        <v>4.033512814582215</v>
+        <v>4.0046578965648889</v>
       </c>
       <c r="E67">
-        <v>0.49423030842763183</v>
+        <v>-2.2579240782765737</v>
       </c>
       <c r="F67">
-        <v>-1.6487185417784822E-2</v>
+        <v>-4.5342103435110914E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B68">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>2848.7736161336265</v>
+        <v>2797.8837191131979</v>
       </c>
       <c r="D68">
-        <v>6.0451180893580654</v>
+        <v>5.9288040441673884</v>
       </c>
       <c r="E68">
-        <v>-0.2263838663734532</v>
+        <v>-2.4162808868022694</v>
       </c>
       <c r="F68">
-        <v>-4.8819106419344394E-3</v>
+        <v>-7.1195955832611624E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B69">
         <v>8.0500000000000007</v>
       </c>
       <c r="C69">
-        <v>2848.7584972974964</v>
+        <v>2796.3437555203332</v>
       </c>
       <c r="D69">
-        <v>8.043225632643825</v>
+        <v>7.8953279006915436</v>
       </c>
       <c r="E69">
-        <v>-0.24150270250356698</v>
+        <v>-3.9562444796670206</v>
       </c>
       <c r="F69">
-        <v>-6.7743673561757589E-3</v>
+        <v>-0.15467209930845716</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B70">
         <v>10.02</v>
       </c>
       <c r="C70">
-        <v>2848.4291957605542</v>
+        <v>2795.2185560685675</v>
       </c>
       <c r="D70">
-        <v>10.033638133846956</v>
+        <v>9.8119033403097013</v>
       </c>
       <c r="E70">
-        <v>-0.57080423944580616</v>
+        <v>-5.0814439314326592</v>
       </c>
       <c r="F70">
-        <v>1.363813384695689E-2</v>
+        <v>-0.20809665969029822</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B71">
-        <v>12.02</v>
+        <v>12.05</v>
       </c>
       <c r="C71">
-        <v>2849.3697831664144</v>
+        <v>2794.9350241648995</v>
       </c>
       <c r="D71">
-        <v>12.059212026331133</v>
+        <v>11.726036596960958</v>
       </c>
       <c r="E71">
-        <v>0.36978316641443598</v>
+        <v>-5.3649758351007222</v>
       </c>
       <c r="F71">
-        <v>3.9212026331133742E-2</v>
+        <v>-0.32396340303904303</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B72">
-        <v>14.08</v>
+        <v>14.02</v>
       </c>
       <c r="C72">
-        <v>2849.4544247676786</v>
+        <v>2795.2002322709527</v>
       </c>
       <c r="D72">
-        <v>14.050181003490511</v>
+        <v>13.605936449404753</v>
       </c>
       <c r="E72">
-        <v>0.45442476767857443</v>
+        <v>-5.0997677290474712</v>
       </c>
       <c r="F72">
-        <v>-2.9818996509488827E-2</v>
+        <v>-0.41406355059524635</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2849</v>
+        <v>2800.3</v>
       </c>
       <c r="B73">
-        <v>16.05</v>
+        <v>16.02</v>
       </c>
       <c r="C73">
-        <v>2849.9090194359583</v>
+        <v>2796.0202103242846</v>
       </c>
       <c r="D73">
-        <v>16.003200749418006</v>
+        <v>15.538425443584963</v>
       </c>
       <c r="E73">
-        <v>0.90901943595827106</v>
+        <v>-4.2797896757156195</v>
       </c>
       <c r="F73">
-        <v>-4.6799250581994301E-2</v>
+        <v>-0.48157455641503688</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>2949.2404509549701</v>
+        <v>2899.3478976246874</v>
       </c>
       <c r="D74">
-        <v>-3.7347995847223869E-2</v>
+        <v>4.7911285838327398E-2</v>
       </c>
       <c r="E74">
-        <v>0.5404509549703107</v>
+        <v>-0.65210237531255189</v>
       </c>
       <c r="F74">
-        <v>-3.7347995847223869E-2</v>
+        <v>4.7911285838327398E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B75">
-        <v>-16.07</v>
+        <v>-15.95</v>
       </c>
       <c r="C75">
-        <v>2948.5678543934096</v>
+        <v>2903.1005349103184</v>
       </c>
       <c r="D75">
-        <v>-15.946426101017034</v>
+        <v>-15.53735434068699</v>
       </c>
       <c r="E75">
-        <v>-0.13214560659025665</v>
+        <v>3.1005349103184017</v>
       </c>
       <c r="F75">
-        <v>0.12357389898296667</v>
+        <v>0.41264565931300901</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B76">
-        <v>-13.95</v>
+        <v>-14.03</v>
       </c>
       <c r="C76">
-        <v>2947.9653612654452</v>
+        <v>2900.6094276205777</v>
       </c>
       <c r="D76">
-        <v>-13.821480057375148</v>
+        <v>-13.687143688150371</v>
       </c>
       <c r="E76">
-        <v>-0.73463873455466455</v>
+        <v>0.60942762057766231</v>
       </c>
       <c r="F76">
-        <v>0.12851994262485178</v>
+        <v>0.34285631184962817</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B77">
-        <v>-11.92</v>
+        <v>-12</v>
       </c>
       <c r="C77">
-        <v>2947.8134650972693</v>
+        <v>2900.1136958276711</v>
       </c>
       <c r="D77">
-        <v>-11.859998260555979</v>
+        <v>-11.751252227319188</v>
       </c>
       <c r="E77">
-        <v>-0.88653490273054558</v>
+        <v>0.11369582767110842</v>
       </c>
       <c r="F77">
-        <v>6.000173944402043E-2</v>
+        <v>0.24874777268081161</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B78">
-        <v>-9.92</v>
+        <v>-10</v>
       </c>
       <c r="C78">
-        <v>2947.4010528931535</v>
+        <v>2900.8049787858668</v>
       </c>
       <c r="D78">
-        <v>-9.880894483721244</v>
+        <v>-9.8070246935376026</v>
       </c>
       <c r="E78">
-        <v>-1.298947106846299</v>
+        <v>0.80497878586675142</v>
       </c>
       <c r="F78">
-        <v>3.9105516278755914E-2</v>
+        <v>0.19297530646239736</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B79">
-        <v>-7.95</v>
+        <v>-8.08</v>
       </c>
       <c r="C79">
-        <v>2948.2288341428671</v>
+        <v>2899.7212762971844</v>
       </c>
       <c r="D79">
-        <v>-7.9069606961256031</v>
+        <v>-7.854131248955758</v>
       </c>
       <c r="E79">
-        <v>-0.47116585713274617</v>
+        <v>-0.27872370281556869</v>
       </c>
       <c r="F79">
-        <v>4.3039303874397028E-2</v>
+        <v>0.22586875104424209</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B80">
-        <v>-5.92</v>
+        <v>-6</v>
       </c>
       <c r="C80">
-        <v>2948.9828613086888</v>
+        <v>2899.7944912474054</v>
       </c>
       <c r="D80">
-        <v>-5.9117202701205143</v>
+        <v>-5.8169124963603176</v>
       </c>
       <c r="E80">
-        <v>0.28286130868900727</v>
+        <v>-0.20550875259459644</v>
       </c>
       <c r="F80">
-        <v>8.2797298794856644E-3</v>
+        <v>0.1830875036396824</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B81">
-        <v>-3.92</v>
+        <v>-3.98</v>
       </c>
       <c r="C81">
-        <v>2948.7242217056746</v>
+        <v>2899.0140921928341</v>
       </c>
       <c r="D81">
-        <v>-3.9308711104201994</v>
+        <v>-3.8548123783604242</v>
       </c>
       <c r="E81">
-        <v>2.4221705674790428E-2</v>
+        <v>-0.98590780716585869</v>
       </c>
       <c r="F81">
-        <v>-1.0871110420199503E-2</v>
+        <v>0.12518762163957575</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B82">
-        <v>-1.95</v>
+        <v>-2</v>
       </c>
       <c r="C82">
-        <v>2948.0235029342793</v>
+        <v>2899.2941289372325</v>
       </c>
       <c r="D82">
-        <v>-1.9475859747816724</v>
+        <v>-1.9031965489686042</v>
       </c>
       <c r="E82">
-        <v>-0.67649706572046853</v>
+        <v>-0.7058710627675282</v>
       </c>
       <c r="F82">
-        <v>2.4140252183275646E-3</v>
+        <v>9.680345103139576E-2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B83">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="C83">
-        <v>2949.4770812095139</v>
+        <v>2899.4931522011771</v>
       </c>
       <c r="D83">
-        <v>7.6019552823682515E-2</v>
+        <v>7.3011853201866317E-2</v>
       </c>
       <c r="E83">
-        <v>0.7770812095141082</v>
+        <v>-0.50684779882294606</v>
       </c>
       <c r="F83">
-        <v>-3.9804471763174865E-3</v>
+        <v>5.3011853201866313E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B84">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>2949.2397760641834</v>
+        <v>2898.1470678623737</v>
       </c>
       <c r="D84">
-        <v>2.0595510344612076</v>
+        <v>2.022331376692883</v>
       </c>
       <c r="E84">
-        <v>0.53977606418357027</v>
+        <v>-1.8529321376263397</v>
       </c>
       <c r="F84">
-        <v>3.9551034461207557E-2</v>
+        <v>2.2331376692882987E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B85">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="C85">
-        <v>2949.8853336600341</v>
+        <v>2897.5528680097368</v>
       </c>
       <c r="D85">
-        <v>4.1058920674312214</v>
+        <v>3.9906405312631934</v>
       </c>
       <c r="E85">
-        <v>1.1853336600343027</v>
+        <v>-2.4471319902631876</v>
       </c>
       <c r="F85">
-        <v>2.58920674312213E-2</v>
+        <v>-5.935946873680642E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B86">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>2948.2032409972294</v>
+        <v>2896.9980520093868</v>
       </c>
       <c r="D86">
-        <v>6.0631554429878145</v>
+        <v>5.9128539956501713</v>
       </c>
       <c r="E86">
-        <v>-0.49675900277043183</v>
+        <v>-3.0019479906131892</v>
       </c>
       <c r="F86">
-        <v>1.3155442987814681E-2</v>
+        <v>-8.7146004349828665E-2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B87">
         <v>8.0500000000000007</v>
       </c>
       <c r="C87">
-        <v>2947.4217239658592</v>
+        <v>2895.5497398006437</v>
       </c>
       <c r="D87">
-        <v>8.0597247325354147</v>
+        <v>7.8827649673087805</v>
       </c>
       <c r="E87">
-        <v>-1.2782760341406174</v>
+        <v>-4.4502601993563076</v>
       </c>
       <c r="F87">
-        <v>9.7247325354139491E-3</v>
+        <v>-0.1672350326912202</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B88">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="C88">
-        <v>2948.1263942724086</v>
+        <v>2894.9456070870228</v>
       </c>
       <c r="D88">
-        <v>10.053542874097005</v>
+        <v>9.7970146023053211</v>
       </c>
       <c r="E88">
-        <v>-0.57360572759125716</v>
+        <v>-5.0543929129771641</v>
       </c>
       <c r="F88">
-        <v>5.3542874097004756E-2</v>
+        <v>-0.22298539769467851</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B89">
-        <v>12.05</v>
+        <v>12.02</v>
       </c>
       <c r="C89">
-        <v>2948.172927563729</v>
+        <v>2893.4987794835401</v>
       </c>
       <c r="D89">
-        <v>12.079353192338157</v>
+        <v>11.722851384275256</v>
       </c>
       <c r="E89">
-        <v>-0.52707243627082789</v>
+        <v>-6.5012205164598527</v>
       </c>
       <c r="F89">
-        <v>2.9353192338156475E-2</v>
+        <v>-0.29714861572474405</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B90">
         <v>14.05</v>
       </c>
       <c r="C90">
-        <v>2949.1614636587501</v>
+        <v>2892.6475511691642</v>
       </c>
       <c r="D90">
-        <v>14.069992844695367</v>
+        <v>13.641914706300009</v>
       </c>
       <c r="E90">
-        <v>0.46146365875029005</v>
+        <v>-7.3524488308357832</v>
       </c>
       <c r="F90">
-        <v>1.999284469536633E-2</v>
+        <v>-0.40808529369999214</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>2948.7</v>
+        <v>2900</v>
       </c>
       <c r="B91">
-        <v>16.05</v>
+        <v>16.02</v>
       </c>
       <c r="C91">
-        <v>2949.3302824894099</v>
+        <v>2893.5723519593457</v>
       </c>
       <c r="D91">
-        <v>16.001688625262801</v>
+        <v>15.541189915915712</v>
       </c>
       <c r="E91">
-        <v>0.63028248941009224</v>
+        <v>-6.427648040654276</v>
       </c>
       <c r="F91">
-        <v>-4.8311374737199486E-2</v>
+        <v>-0.47881008408428727</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2999.6</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>2998.441426027292</v>
+      </c>
+      <c r="D92">
+        <v>1.5361042632958025E-2</v>
+      </c>
+      <c r="E92">
+        <v>-1.1585739727079272</v>
+      </c>
+      <c r="F92">
+        <v>1.5361042632958025E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>2999.6</v>
+      </c>
+      <c r="B93">
+        <v>-15.95</v>
+      </c>
+      <c r="C93">
+        <v>3001.7724425970723</v>
+      </c>
+      <c r="D93">
+        <v>-15.569280351585478</v>
+      </c>
+      <c r="E93">
+        <v>2.1724425970724042</v>
+      </c>
+      <c r="F93">
+        <v>0.38071964841452122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>2999.6</v>
+      </c>
+      <c r="B94">
+        <v>-14.05</v>
+      </c>
+      <c r="C94">
+        <v>2999.9501160271448</v>
+      </c>
+      <c r="D94">
+        <v>-13.719880649032522</v>
+      </c>
+      <c r="E94">
+        <v>0.3501160271448498</v>
+      </c>
+      <c r="F94">
+        <v>0.33011935096747891</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>2999.6</v>
+      </c>
+      <c r="B95">
+        <v>-12</v>
+      </c>
+      <c r="C95">
+        <v>2998.527665734021</v>
+      </c>
+      <c r="D95">
+        <v>-11.750798869714021</v>
+      </c>
+      <c r="E95">
+        <v>-1.0723342659789523</v>
+      </c>
+      <c r="F95">
+        <v>0.24920113028597868</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>2999.6</v>
+      </c>
+      <c r="B96">
+        <v>-9.98</v>
+      </c>
+      <c r="C96">
+        <v>2998.9993854534323</v>
+      </c>
+      <c r="D96">
+        <v>-9.8126825306830998</v>
+      </c>
+      <c r="E96">
+        <v>-0.60061454656761271</v>
+      </c>
+      <c r="F96">
+        <v>0.16731746931690061</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>2999.6</v>
+      </c>
+      <c r="B97">
+        <v>-8.08</v>
+      </c>
+      <c r="C97">
+        <v>2998.2891372751469</v>
+      </c>
+      <c r="D97">
+        <v>-7.8740586755988993</v>
+      </c>
+      <c r="E97">
+        <v>-1.3108627248529956</v>
+      </c>
+      <c r="F97">
+        <v>0.2059413244011008</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>2999.6</v>
+      </c>
+      <c r="B98">
+        <v>-6</v>
+      </c>
+      <c r="C98">
+        <v>2999.3432352678242</v>
+      </c>
+      <c r="D98">
+        <v>-5.8464131274997673</v>
+      </c>
+      <c r="E98">
+        <v>-0.25676473217572493</v>
+      </c>
+      <c r="F98">
+        <v>0.15358687250023273</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>2999.6</v>
+      </c>
+      <c r="B99">
+        <v>-3.98</v>
+      </c>
+      <c r="C99">
+        <v>2998.489051608195</v>
+      </c>
+      <c r="D99">
+        <v>-3.8727850744232715</v>
+      </c>
+      <c r="E99">
+        <v>-1.1109483918048682</v>
+      </c>
+      <c r="F99">
+        <v>0.10721492557672851</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2999.6</v>
+      </c>
+      <c r="B100">
+        <v>-2</v>
+      </c>
+      <c r="C100">
+        <v>2998.0438423264359</v>
+      </c>
+      <c r="D100">
+        <v>-1.9307904938041538</v>
+      </c>
+      <c r="E100">
+        <v>-1.5561576735640301</v>
+      </c>
+      <c r="F100">
+        <v>6.9209506195846204E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>2999.6</v>
+      </c>
+      <c r="B101">
+        <v>0.02</v>
+      </c>
+      <c r="C101">
+        <v>2998.0872485327691</v>
+      </c>
+      <c r="D101">
+        <v>5.0236111575726522E-2</v>
+      </c>
+      <c r="E101">
+        <v>-1.512751467230828</v>
+      </c>
+      <c r="F101">
+        <v>3.0236111575726522E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2999.6</v>
+      </c>
+      <c r="B102">
+        <v>2.02</v>
+      </c>
+      <c r="C102">
+        <v>2997.5725165573599</v>
+      </c>
+      <c r="D102">
+        <v>2.0004891094311117</v>
+      </c>
+      <c r="E102">
+        <v>-2.0274834426400048</v>
+      </c>
+      <c r="F102">
+        <v>-1.9510890568888328E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2999.6</v>
+      </c>
+      <c r="B103">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="C103">
+        <v>2996.35221629222</v>
+      </c>
+      <c r="D103">
+        <v>3.9529944534070589</v>
+      </c>
+      <c r="E103">
+        <v>-3.247783707779945</v>
+      </c>
+      <c r="F103">
+        <v>-6.7005546592940668E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>2999.6</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>2996.0507509759786</v>
+      </c>
+      <c r="D104">
+        <v>5.8962311574675033</v>
+      </c>
+      <c r="E104">
+        <v>-3.5492490240212646</v>
+      </c>
+      <c r="F104">
+        <v>-0.10376884253249674</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2999.6</v>
+      </c>
+      <c r="B105">
+        <v>8.07</v>
+      </c>
+      <c r="C105">
+        <v>2994.1202444303026</v>
+      </c>
+      <c r="D105">
+        <v>7.876231151793287</v>
+      </c>
+      <c r="E105">
+        <v>-5.4797555696973177</v>
+      </c>
+      <c r="F105">
+        <v>-0.19376884820671325</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>2999.6</v>
+      </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>2992.9666443086294</v>
+      </c>
+      <c r="D106">
+        <v>9.761056517850335</v>
+      </c>
+      <c r="E106">
+        <v>-6.6333556913705252</v>
+      </c>
+      <c r="F106">
+        <v>-0.23894348214966499</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>2999.6</v>
+      </c>
+      <c r="B107">
+        <v>12.05</v>
+      </c>
+      <c r="C107">
+        <v>2991.0830076261036</v>
+      </c>
+      <c r="D107">
+        <v>11.722593830203429</v>
+      </c>
+      <c r="E107">
+        <v>-8.5169923738963007</v>
+      </c>
+      <c r="F107">
+        <v>-0.32740616979657133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>2999.6</v>
+      </c>
+      <c r="B108">
+        <v>14.02</v>
+      </c>
+      <c r="C108">
+        <v>2990.822793606003</v>
+      </c>
+      <c r="D108">
+        <v>13.624064182738859</v>
+      </c>
+      <c r="E108">
+        <v>-8.7772063939969485</v>
+      </c>
+      <c r="F108">
+        <v>-0.39593581726114024</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>2999.6</v>
+      </c>
+      <c r="B109">
+        <v>16.02</v>
+      </c>
+      <c r="C109">
+        <v>2990.7038430491839</v>
+      </c>
+      <c r="D109">
+        <v>15.539745492483991</v>
+      </c>
+      <c r="E109">
+        <v>-8.896156950816021</v>
+      </c>
+      <c r="F109">
+        <v>-0.48025450751600829</v>
       </c>
     </row>
   </sheetData>

--- a/cam2_validation_result.xlsx
+++ b/cam2_validation_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45A7DA0-71D1-4252-95A8-F183C2CC0C37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B5C6E8-05DC-44B6-947B-B7BA12582026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16774" yWindow="4500" windowWidth="16192" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26031" yWindow="3111" windowWidth="17718" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,52 +247,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-15.93</c:v>
+                  <c:v>-15.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-14.02</c:v>
+                  <c:v>-14.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-12</c:v>
+                  <c:v>-12.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-10</c:v>
+                  <c:v>-10.050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.1</c:v>
+                  <c:v>-8.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6</c:v>
+                  <c:v>-6.03</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.97</c:v>
+                  <c:v>-4.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2</c:v>
+                  <c:v>-2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.03</c:v>
+                  <c:v>-0.03</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0299999999999998</c:v>
+                  <c:v>1.97</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.03</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>5.97</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0500000000000007</c:v>
+                  <c:v>8.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.029999999999999</c:v>
+                  <c:v>9.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.03</c:v>
+                  <c:v>12.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.03</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>16.02</c:v>
@@ -301,157 +301,157 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-15.92</c:v>
+                  <c:v>-15.9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-14.05</c:v>
+                  <c:v>-14.08</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-12</c:v>
+                  <c:v>-12.05</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-9.9700000000000006</c:v>
+                  <c:v>-10.050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8.1</c:v>
+                  <c:v>-8.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-6</c:v>
+                  <c:v>-6.03</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-4</c:v>
+                  <c:v>-4.05</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2</c:v>
+                  <c:v>-2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.03</c:v>
+                  <c:v>-0.03</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.0299999999999998</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.03</c:v>
+                  <c:v>3.97</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.03</c:v>
+                  <c:v>5.97</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0299999999999994</c:v>
+                  <c:v>8.02</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.050000000000001</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12.03</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>14.03</c:v>
+                  <c:v>14.02</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>16.03</c:v>
+                  <c:v>16.02</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-15.95</c:v>
+                  <c:v>-15.9</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-14.05</c:v>
+                  <c:v>-14.08</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-12</c:v>
+                  <c:v>-12.05</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-9.9700000000000006</c:v>
+                  <c:v>-10.050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-8.1</c:v>
+                  <c:v>-8.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-6</c:v>
+                  <c:v>-6.03</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-4</c:v>
+                  <c:v>-4.05</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-2</c:v>
+                  <c:v>-2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.03</c:v>
+                  <c:v>-0.03</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.0299999999999998</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.03</c:v>
+                  <c:v>3.97</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.03</c:v>
+                  <c:v>5.97</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.0299999999999994</c:v>
+                  <c:v>8.02</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10.029999999999999</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>12.03</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>14.05</c:v>
+                  <c:v>14.02</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>16.03</c:v>
+                  <c:v>16.02</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-15.93</c:v>
+                  <c:v>-15.9</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-14.05</c:v>
+                  <c:v>-14.08</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-12</c:v>
+                  <c:v>-12.05</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-10</c:v>
+                  <c:v>-10.050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-8.08</c:v>
+                  <c:v>-8.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-6</c:v>
+                  <c:v>-6.03</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-3.98</c:v>
+                  <c:v>-4.05</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-2</c:v>
+                  <c:v>-2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.02</c:v>
+                  <c:v>-0.03</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.05</c:v>
+                  <c:v>3.97</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6</c:v>
+                  <c:v>5.97</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>8.0500000000000007</c:v>
+                  <c:v>8.02</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10.02</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>12.05</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>14.02</c:v>
@@ -463,109 +463,109 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-15.95</c:v>
+                  <c:v>-15.92</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-14.03</c:v>
+                  <c:v>-14.07</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-12</c:v>
+                  <c:v>-12.05</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-10</c:v>
+                  <c:v>-10.050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-8.08</c:v>
+                  <c:v>-8.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-6</c:v>
+                  <c:v>-6.05</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-3.98</c:v>
+                  <c:v>-4.05</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-2</c:v>
+                  <c:v>-2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.02</c:v>
+                  <c:v>-0.02</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2</c:v>
+                  <c:v>1.98</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.05</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6</c:v>
+                  <c:v>5.98</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.0500000000000007</c:v>
+                  <c:v>8.0299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>10.02</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>12.02</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>14.05</c:v>
+                  <c:v>14.03</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>16.02</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-15.95</c:v>
+                  <c:v>-15.92</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-14.05</c:v>
+                  <c:v>-14.07</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-12</c:v>
+                  <c:v>-12.05</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-9.98</c:v>
+                  <c:v>-10.050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-8.08</c:v>
+                  <c:v>-8.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-6</c:v>
+                  <c:v>-6.05</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-3.98</c:v>
+                  <c:v>-4.05</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-2</c:v>
+                  <c:v>-2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.02</c:v>
+                  <c:v>-0.02</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.02</c:v>
+                  <c:v>1.98</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6</c:v>
+                  <c:v>5.98</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.07</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>10</c:v>
+                  <c:v>10.029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>12.05</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>14.02</c:v>
+                  <c:v>14.03</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>16.02</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -577,328 +577,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="180"/>
                 <c:pt idx="0">
-                  <c:v>-3.2289002203351629</c:v>
+                  <c:v>0.14354833337893069</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3189162717148974</c:v>
+                  <c:v>2.4861252654159216</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8801718942468142E-2</c:v>
+                  <c:v>1.2794485899999017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.65026335519632994</c:v>
+                  <c:v>3.7970590725763032E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.1625003623857992</c:v>
+                  <c:v>0.63274531257820854</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.4848922299916012</c:v>
+                  <c:v>0.42475403082698904</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.7261658033185086</c:v>
+                  <c:v>1.0057948932781073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.2768280872701325</c:v>
+                  <c:v>0.58461566455480352</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.1258078733671937</c:v>
+                  <c:v>0.81294291420272202</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.2911285481777668</c:v>
+                  <c:v>9.230742272848147E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.2801759432527433</c:v>
+                  <c:v>0.19202065776289601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.6348244769765188</c:v>
+                  <c:v>0.94623374388947923</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.7789419399523467</c:v>
+                  <c:v>0.65595608181592979</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.2207449296370214</c:v>
+                  <c:v>0.15274154777716831</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.0839424556070298</c:v>
+                  <c:v>-0.18674852860203828</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.4116650815522007</c:v>
+                  <c:v>-0.17577871284220237</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.6058789143039576</c:v>
+                  <c:v>0.79565428585692644</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.172606220943635</c:v>
+                  <c:v>3.6191779918572138</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.4728482456521306</c:v>
+                  <c:v>1.9079254797911744</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6362428176685171</c:v>
+                  <c:v>2.1571965989646742</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7578990686879479</c:v>
+                  <c:v>0.70890967231707691</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.30393594053930428</c:v>
+                  <c:v>1.0069924028271089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.1982071398597327</c:v>
+                  <c:v>0.6430155467064651</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.2220300108510855</c:v>
+                  <c:v>0.64495539547806402</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.3348752896577025</c:v>
+                  <c:v>0.89613882569574344</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.834369957240142</c:v>
+                  <c:v>0.73223013209053534</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.1651105054238542</c:v>
+                  <c:v>0.38975897733462261</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2.1559259301634484</c:v>
+                  <c:v>2.0070169706782508</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.677010012527262</c:v>
+                  <c:v>1.8395172833343167</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-2.4012327816003562</c:v>
+                  <c:v>1.7461879935149227</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3.9891725648280953</c:v>
+                  <c:v>0.87497886746450604</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-5.0764830507591796</c:v>
+                  <c:v>0.72094890032940384</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-4.4360021829370453</c:v>
+                  <c:v>-0.40143921440903796</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-5.0895790183903955</c:v>
+                  <c:v>0.26967167177326701</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-4.5223877073221956</c:v>
+                  <c:v>2.2653361402603878</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-2.6921154642486727</c:v>
+                  <c:v>2.8777652780659082</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.2353068579845967</c:v>
+                  <c:v>0.53949606329706512</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.6751134506603194</c:v>
+                  <c:v>2.090518274531405</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.86500196169572519</c:v>
+                  <c:v>1.317800395148879</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.7176036688160821E-2</c:v>
+                  <c:v>1.2069483385043895</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.6810539738321495</c:v>
+                  <c:v>0.57131555229670994</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1.6558678078699813</c:v>
+                  <c:v>-1.1036293319193646E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.68917118572198888</c:v>
+                  <c:v>1.066832461964168</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.8927542222927514</c:v>
+                  <c:v>1.0893660974224986</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.4047360167892293</c:v>
+                  <c:v>2.4060029880583897</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-2.20152308391107</c:v>
+                  <c:v>0.65965368885463249</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-1.7403320506964519</c:v>
+                  <c:v>1.1499942704140267</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3.1643731845515504</c:v>
+                  <c:v>0.86034557865104944</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-2.9698736538553021</c:v>
+                  <c:v>0.99621908436438389</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-3.671240754500559</c:v>
+                  <c:v>0.34813924446461897</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-4.0749498393906833</c:v>
+                  <c:v>0.57468012960998749</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-4.9987367487224219</c:v>
+                  <c:v>-0.10602196638319583</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-5.4388584932262347</c:v>
+                  <c:v>1.7549432016003266</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-3.7355129297666281</c:v>
+                  <c:v>2.5132576277205771</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1.865309703863204</c:v>
+                  <c:v>1.9803263114217771</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.7794817167964538</c:v>
+                  <c:v>1.8778112321169829</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.7644656501061036</c:v>
+                  <c:v>1.1966383928861433</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.3262329150129517E-2</c:v>
+                  <c:v>0.57611947440227596</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.99200889364510658</c:v>
+                  <c:v>1.5242516888315549</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-2.4687595850991784E-4</c:v>
+                  <c:v>2.3927190385420545</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.5935299782254333</c:v>
+                  <c:v>1.5907165795651963</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.94838949794120708</c:v>
+                  <c:v>1.4006350270997245</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.3900201094079421</c:v>
+                  <c:v>1.3355786279066706</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-1.7445836879978742</c:v>
+                  <c:v>1.7651301609494112</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-1.9350973087489365</c:v>
+                  <c:v>0.54266931858273892</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-2.2579240782765737</c:v>
+                  <c:v>2.6046874421958819</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2.4162808868022694</c:v>
+                  <c:v>-0.28153749677767337</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-3.9562444796670206</c:v>
+                  <c:v>0.67813534152173816</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-5.0814439314326592</c:v>
+                  <c:v>0.48251045436745699</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-5.3649758351007222</c:v>
+                  <c:v>-9.5615336401806417E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-5.0997677290474712</c:v>
+                  <c:v>0.94925681917538896</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-4.2797896757156195</c:v>
+                  <c:v>2.1779434932709592</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.65210237531255189</c:v>
+                  <c:v>1.7769722976713638</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.1005349103184017</c:v>
+                  <c:v>2.6105284596137608</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.60942762057766231</c:v>
+                  <c:v>1.1016971785625174</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.11369582767110842</c:v>
+                  <c:v>0.96660807435500828</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.80497878586675142</c:v>
+                  <c:v>0.20208964901621584</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.27872370281556869</c:v>
+                  <c:v>1.2777058031433626</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.20550875259459644</c:v>
+                  <c:v>1.9930097661385844</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.98590780716585869</c:v>
+                  <c:v>0.86245303380837868</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.7058710627675282</c:v>
+                  <c:v>1.1473279726287728</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.50684779882294606</c:v>
+                  <c:v>1.839558404150921</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.8529321376263397</c:v>
+                  <c:v>1.8053441504744114</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-2.4471319902631876</c:v>
+                  <c:v>2.7749834481828657</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-3.0019479906131892</c:v>
+                  <c:v>0.71100077897517622</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-4.4502601993563076</c:v>
+                  <c:v>1.1647583035937714</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-5.0543929129771641</c:v>
+                  <c:v>0.31785315193246788</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-6.5012205164598527</c:v>
+                  <c:v>-1.0467268696202154</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-7.3524488308357832</c:v>
+                  <c:v>0.67112780164825381</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-6.427648040654276</c:v>
+                  <c:v>2.2252643366523444</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.1585739727079272</c:v>
+                  <c:v>2.0643203389981863</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.1724425970724042</c:v>
+                  <c:v>0.25174847172593218</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.3501160271448498</c:v>
+                  <c:v>1.2433688836454166</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-1.0723342659789523</c:v>
+                  <c:v>1.1822903527440758</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.60061454656761271</c:v>
+                  <c:v>1.4765021564076051</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-1.3108627248529956</c:v>
+                  <c:v>1.0078558998511653</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.25676473217572493</c:v>
+                  <c:v>2.7061101565127501</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-1.1109483918048682</c:v>
+                  <c:v>0.59898799403708836</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-1.5561576735640301</c:v>
+                  <c:v>1.0042650644923015</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-1.512751467230828</c:v>
+                  <c:v>1.6753999635197943</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-2.0274834426400048</c:v>
+                  <c:v>1.6898352588518719</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-3.247783707779945</c:v>
+                  <c:v>2.3549131023719383</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-3.5492490240212646</c:v>
+                  <c:v>-1.9305072298720916E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-5.4797555696973177</c:v>
+                  <c:v>1.7933106140098971</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-6.6333556913705252</c:v>
+                  <c:v>-0.77312459227641739</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-8.5169923738963007</c:v>
+                  <c:v>0.70055976048251978</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-8.7772063939969485</c:v>
+                  <c:v>-0.1572482440069507</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-8.896156950816021</c:v>
+                  <c:v>1.4381522207636408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2681,2192 +2681,2192 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2497.9710997796647</v>
+        <v>2499.9435483333791</v>
       </c>
       <c r="D2">
-        <v>9.4057118360399608E-2</v>
+        <v>4.8143923025413253E-2</v>
       </c>
       <c r="E2">
-        <v>-3.2289002203351629</v>
+        <v>0.14354833337893069</v>
       </c>
       <c r="F2">
-        <v>9.4057118360399608E-2</v>
+        <v>4.8143923025413253E-2</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>2.726332847753139</v>
+        <v>1.2381905163424562</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B3">
-        <v>-15.93</v>
+        <v>-15.9</v>
       </c>
       <c r="C3">
-        <v>2503.5189162717147</v>
+        <v>2502.2861252654161</v>
       </c>
       <c r="D3">
-        <v>-15.460604034653223</v>
+        <v>-16.024551097568434</v>
       </c>
       <c r="E3">
-        <v>2.3189162717148974</v>
+        <v>2.4861252654159216</v>
       </c>
       <c r="F3">
-        <v>0.46939596534677719</v>
+        <v>-0.12455109756843363</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="I3">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B4">
-        <v>-14.02</v>
+        <v>-14.08</v>
       </c>
       <c r="C4">
-        <v>2501.2988017189423</v>
+        <v>2501.0794485900001</v>
       </c>
       <c r="D4">
-        <v>-13.632194267733002</v>
+        <v>-14.183054502720649</v>
       </c>
       <c r="E4">
-        <v>9.8801718942468142E-2</v>
+        <v>1.2794485899999017</v>
       </c>
       <c r="F4">
-        <v>0.38780573226699744</v>
+        <v>-0.10305450272064931</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B5">
-        <v>-12</v>
+        <v>-12.05</v>
       </c>
       <c r="C5">
-        <v>2500.5497366448035</v>
+        <v>2499.8379705907259</v>
       </c>
       <c r="D5">
-        <v>-11.686015234627623</v>
+        <v>-12.158666023526164</v>
       </c>
       <c r="E5">
-        <v>-0.65026335519632994</v>
+        <v>3.7970590725763032E-2</v>
       </c>
       <c r="F5">
-        <v>0.31398476537237663</v>
+        <v>-0.10866602352616361</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5">
-        <v>0.41666666666666669</v>
+        <v>0.82222222222222219</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B6">
-        <v>-10</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="C6">
-        <v>2499.037499637614</v>
+        <v>2500.4327453125784</v>
       </c>
       <c r="D6">
-        <v>-9.757714947390923</v>
+        <v>-10.136636225327349</v>
       </c>
       <c r="E6">
-        <v>-2.1625003623857992</v>
+        <v>0.63274531257820854</v>
       </c>
       <c r="F6">
-        <v>0.24228505260907696</v>
+        <v>-8.6636225327348271E-2</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>6.5012205164598527</v>
+        <v>2.6046874421958819</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B7">
-        <v>-8.1</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="C7">
-        <v>2498.7151077700082</v>
+        <v>2500.2247540308272</v>
       </c>
       <c r="D7">
-        <v>-7.7820686145149551</v>
+        <v>-8.1000976667872404</v>
       </c>
       <c r="E7">
-        <v>-2.4848922299916012</v>
+        <v>0.42475403082698904</v>
       </c>
       <c r="F7">
-        <v>0.31793138548504452</v>
+        <v>-5.0097666787239703E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B8">
-        <v>-6</v>
+        <v>-6.03</v>
       </c>
       <c r="C8">
-        <v>2498.4738341966813</v>
+        <v>2500.8057948932783</v>
       </c>
       <c r="D8">
-        <v>-5.7383431501144333</v>
+        <v>-6.0847970548668915</v>
       </c>
       <c r="E8">
-        <v>-2.7261658033185086</v>
+        <v>1.0057948932781073</v>
       </c>
       <c r="F8">
-        <v>0.2616568498855667</v>
+        <v>-5.4797054866891237E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B9">
-        <v>-3.97</v>
+        <v>-4.05</v>
       </c>
       <c r="C9">
-        <v>2497.9231719127297</v>
+        <v>2500.384615664555</v>
       </c>
       <c r="D9">
-        <v>-3.7830216084019241</v>
+        <v>-4.0607973770981403</v>
       </c>
       <c r="E9">
-        <v>-3.2768280872701325</v>
+        <v>0.58461566455480352</v>
       </c>
       <c r="F9">
-        <v>0.18697839159807605</v>
+        <v>-1.0797377098140437E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B10">
-        <v>-2</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="C10">
-        <v>2497.0741921266326</v>
+        <v>2500.6129429142029</v>
       </c>
       <c r="D10">
-        <v>-1.8351963531036837</v>
+        <v>-2.0121618581316167</v>
       </c>
       <c r="E10">
-        <v>-4.1258078733671937</v>
+        <v>0.81294291420272202</v>
       </c>
       <c r="F10">
-        <v>0.16480364689631632</v>
+        <v>3.7838141868383079E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B11">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
       <c r="C11">
-        <v>2497.9088714518221</v>
+        <v>2499.809230742273</v>
       </c>
       <c r="D11">
-        <v>0.14018315551536251</v>
+        <v>4.0569968789542381E-2</v>
       </c>
       <c r="E11">
-        <v>-3.2911285481777668</v>
+        <v>9.230742272848147E-3</v>
       </c>
       <c r="F11">
-        <v>0.11018315551536251</v>
+        <v>7.0569968789542387E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B12">
-        <v>2.0299999999999998</v>
+        <v>1.97</v>
       </c>
       <c r="C12">
-        <v>2497.9198240567471</v>
+        <v>2499.9920206577631</v>
       </c>
       <c r="D12">
-        <v>2.0695046130853436</v>
+        <v>2.054561688027329</v>
       </c>
       <c r="E12">
-        <v>-3.2801759432527433</v>
+        <v>0.19202065776289601</v>
       </c>
       <c r="F12">
-        <v>3.9504613085343809E-2</v>
+        <v>8.4561688027328996E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B13">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>2497.5651755230233</v>
+        <v>2500.7462337438897</v>
       </c>
       <c r="D13">
-        <v>3.9994968378201499</v>
+        <v>4.0679092927334235</v>
       </c>
       <c r="E13">
-        <v>-3.6348244769765188</v>
+        <v>0.94623374388947923</v>
       </c>
       <c r="F13">
-        <v>-3.0503162179850385E-2</v>
+        <v>6.7909292733423499E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>5.97</v>
       </c>
       <c r="C14">
-        <v>2497.4210580600475</v>
+        <v>2500.4559560818161</v>
       </c>
       <c r="D14">
-        <v>5.9407778999529137</v>
+        <v>6.0503722816669079</v>
       </c>
       <c r="E14">
-        <v>-3.7789419399523467</v>
+        <v>0.65595608181592979</v>
       </c>
       <c r="F14">
-        <v>-5.9222100047086279E-2</v>
+        <v>8.037228166690813E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B15">
-        <v>8.0500000000000007</v>
+        <v>8.02</v>
       </c>
       <c r="C15">
-        <v>2495.9792550703628</v>
+        <v>2499.9527415477774</v>
       </c>
       <c r="D15">
-        <v>7.8996198938521713</v>
+        <v>8.0714933119453178</v>
       </c>
       <c r="E15">
-        <v>-5.2207449296370214</v>
+        <v>0.15274154777716831</v>
       </c>
       <c r="F15">
-        <v>-0.15038010614782937</v>
+        <v>5.1493311945318254E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B16">
-        <v>10.029999999999999</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C16">
-        <v>2497.1160575443928</v>
+        <v>2499.6132514713981</v>
       </c>
       <c r="D16">
-        <v>9.7927868687830273</v>
+        <v>10.010879396679917</v>
       </c>
       <c r="E16">
-        <v>-4.0839424556070298</v>
+        <v>-0.18674852860203828</v>
       </c>
       <c r="F16">
-        <v>-0.23721313121697207</v>
+        <v>4.0879396679915914E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B17">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="C17">
-        <v>2496.7883349184476</v>
+        <v>2499.624221287158</v>
       </c>
       <c r="D17">
-        <v>11.709869453153017</v>
+        <v>12.012691745388</v>
       </c>
       <c r="E17">
-        <v>-4.4116650815522007</v>
+        <v>-0.17577871284220237</v>
       </c>
       <c r="F17">
-        <v>-0.32013054684698261</v>
+        <v>-7.3082546119991321E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B18">
-        <v>14.03</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>2497.5941210856959</v>
+        <v>2500.5956542858571</v>
       </c>
       <c r="D18">
-        <v>13.618511382505531</v>
+        <v>13.94354412004069</v>
       </c>
       <c r="E18">
-        <v>-3.6058789143039576</v>
+        <v>0.79565428585692644</v>
       </c>
       <c r="F18">
-        <v>-0.4114886174944683</v>
+        <v>-5.6455879959310451E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2501.1999999999998</v>
+        <v>2499.8000000000002</v>
       </c>
       <c r="B19">
         <v>16.02</v>
       </c>
       <c r="C19">
-        <v>2499.0273937790562</v>
+        <v>2503.4191779918574</v>
       </c>
       <c r="D19">
-        <v>15.504505369831096</v>
+        <v>15.883306255960846</v>
       </c>
       <c r="E19">
-        <v>-2.172606220943635</v>
+        <v>3.6191779918572138</v>
       </c>
       <c r="F19">
-        <v>-0.51549463016890407</v>
+        <v>-0.13669374403915313</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2598.427151754348</v>
+        <v>2601.4079254797912</v>
       </c>
       <c r="D20">
-        <v>9.628380692045041E-2</v>
+        <v>4.372217994014934E-2</v>
       </c>
       <c r="E20">
-        <v>-2.4728482456521306</v>
+        <v>1.9079254797911744</v>
       </c>
       <c r="F20">
-        <v>9.628380692045041E-2</v>
+        <v>4.372217994014934E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B21">
-        <v>-15.92</v>
+        <v>-15.9</v>
       </c>
       <c r="C21">
-        <v>2603.5362428176686</v>
+        <v>2601.6571965989647</v>
       </c>
       <c r="D21">
-        <v>-15.468905212458472</v>
+        <v>-16.019843979085312</v>
       </c>
       <c r="E21">
-        <v>2.6362428176685171</v>
+        <v>2.1571965989646742</v>
       </c>
       <c r="F21">
-        <v>0.45109478754152832</v>
+        <v>-0.11984397908531186</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B22">
-        <v>-14.05</v>
+        <v>-14.08</v>
       </c>
       <c r="C22">
-        <v>2602.657899068688</v>
+        <v>2600.2089096723171</v>
       </c>
       <c r="D22">
-        <v>-13.620887726551759</v>
+        <v>-14.177763392746801</v>
       </c>
       <c r="E22">
-        <v>1.7578990686879479</v>
+        <v>0.70890967231707691</v>
       </c>
       <c r="F22">
-        <v>0.42911227344824177</v>
+        <v>-9.7763392746800903E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B23">
-        <v>-12</v>
+        <v>-12.05</v>
       </c>
       <c r="C23">
-        <v>2600.5960640594608</v>
+        <v>2600.5069924028271</v>
       </c>
       <c r="D23">
-        <v>-11.670769305884766</v>
+        <v>-12.148916751279627</v>
       </c>
       <c r="E23">
-        <v>-0.30393594053930428</v>
+        <v>1.0069924028271089</v>
       </c>
       <c r="F23">
-        <v>0.32923069411523365</v>
+        <v>-9.891675127962607E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B24">
-        <v>-9.9700000000000006</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="C24">
-        <v>2599.7017928601404</v>
+        <v>2600.1430155467065</v>
       </c>
       <c r="D24">
-        <v>-9.7299070740641103</v>
+        <v>-10.130479232020807</v>
       </c>
       <c r="E24">
-        <v>-1.1982071398597327</v>
+        <v>0.6430155467064651</v>
       </c>
       <c r="F24">
-        <v>0.24009292593589038</v>
+        <v>-8.0479232020806535E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B25">
-        <v>-8.1</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="C25">
-        <v>2599.677969989149</v>
+        <v>2600.1449553954781</v>
       </c>
       <c r="D25">
-        <v>-7.8074803934803931</v>
+        <v>-8.0997002196853405</v>
       </c>
       <c r="E25">
-        <v>-1.2220300108510855</v>
+        <v>0.64495539547806402</v>
       </c>
       <c r="F25">
-        <v>0.29251960651960651</v>
+        <v>-4.9700219685339775E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B26">
-        <v>-6</v>
+        <v>-6.03</v>
       </c>
       <c r="C26">
-        <v>2599.5651247103424</v>
+        <v>2600.3961388256957</v>
       </c>
       <c r="D26">
-        <v>-5.7717924065808406</v>
+        <v>-6.0709914990519032</v>
       </c>
       <c r="E26">
-        <v>-1.3348752896577025</v>
+        <v>0.89613882569574344</v>
       </c>
       <c r="F26">
-        <v>0.22820759341915942</v>
+        <v>-4.0991499051902913E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B27">
-        <v>-4</v>
+        <v>-4.05</v>
       </c>
       <c r="C27">
-        <v>2599.0656300427599</v>
+        <v>2600.2322301320905</v>
       </c>
       <c r="D27">
-        <v>-3.8010936924134646</v>
+        <v>-4.0436919599407792</v>
       </c>
       <c r="E27">
-        <v>-1.834369957240142</v>
+        <v>0.73223013209053534</v>
       </c>
       <c r="F27">
-        <v>0.19890630758653538</v>
+        <v>6.3080400592205876E-3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B28">
-        <v>-2</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="C28">
-        <v>2598.7348894945762</v>
+        <v>2599.8897589773346</v>
       </c>
       <c r="D28">
-        <v>-1.8213767407781993</v>
+        <v>-2.0085001363280104</v>
       </c>
       <c r="E28">
-        <v>-2.1651105054238542</v>
+        <v>0.38975897733462261</v>
       </c>
       <c r="F28">
-        <v>0.17862325922180067</v>
+        <v>4.1499863671989434E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B29">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
       <c r="C29">
-        <v>2598.7440740698366</v>
+        <v>2601.5070169706783</v>
       </c>
       <c r="D29">
-        <v>0.13882149712679401</v>
+        <v>4.3634303166739254E-2</v>
       </c>
       <c r="E29">
-        <v>-2.1559259301634484</v>
+        <v>2.0070169706782508</v>
       </c>
       <c r="F29">
-        <v>0.10882149712679401</v>
+        <v>7.3634303166739246E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B30">
-        <v>2.0299999999999998</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>2598.2229899874728</v>
+        <v>2601.3395172833343</v>
       </c>
       <c r="D30">
-        <v>2.0763313512500443</v>
+        <v>2.0662455384327685</v>
       </c>
       <c r="E30">
-        <v>-2.677010012527262</v>
+        <v>1.8395172833343167</v>
       </c>
       <c r="F30">
-        <v>4.6331351250044506E-2</v>
+        <v>6.624553843276848E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B31">
-        <v>4.03</v>
+        <v>3.97</v>
       </c>
       <c r="C31">
-        <v>2598.4987672183997</v>
+        <v>2601.2461879935149</v>
       </c>
       <c r="D31">
-        <v>4.0088374335342882</v>
+        <v>4.0487958559909423</v>
       </c>
       <c r="E31">
-        <v>-2.4012327816003562</v>
+        <v>1.7461879935149227</v>
       </c>
       <c r="F31">
-        <v>-2.1162566465712018E-2</v>
+        <v>7.8795855990942076E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B32">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="C32">
-        <v>2596.910827435172</v>
+        <v>2600.3749788674645</v>
       </c>
       <c r="D32">
-        <v>5.9515258130255075</v>
+        <v>6.0670855819895619</v>
       </c>
       <c r="E32">
-        <v>-3.9891725648280953</v>
+        <v>0.87497886746450604</v>
       </c>
       <c r="F32">
-        <v>-7.847418697449271E-2</v>
+        <v>9.7085581989562186E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B33">
-        <v>8.0299999999999994</v>
+        <v>8.02</v>
       </c>
       <c r="C33">
-        <v>2595.8235169492409</v>
+        <v>2600.2209489003294</v>
       </c>
       <c r="D33">
-        <v>7.8877731569310088</v>
+        <v>8.0763534600303846</v>
       </c>
       <c r="E33">
-        <v>-5.0764830507591796</v>
+        <v>0.72094890032940384</v>
       </c>
       <c r="F33">
-        <v>-0.14222684306899058</v>
+        <v>5.6353460030384994E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B34">
-        <v>10.050000000000001</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>2596.463997817063</v>
+        <v>2599.098560785591</v>
       </c>
       <c r="D34">
-        <v>9.8247742067493125</v>
+        <v>10.028519103952071</v>
       </c>
       <c r="E34">
-        <v>-4.4360021829370453</v>
+        <v>-0.40143921440903796</v>
       </c>
       <c r="F34">
-        <v>-0.22522579325068826</v>
+        <v>2.8519103952071134E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B35">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>2595.8104209816097</v>
+        <v>2599.7696716717733</v>
       </c>
       <c r="D35">
-        <v>11.71934611863513</v>
+        <v>11.995280169170499</v>
       </c>
       <c r="E35">
-        <v>-5.0895790183903955</v>
+        <v>0.26967167177326701</v>
       </c>
       <c r="F35">
-        <v>-0.31065388136486938</v>
+        <v>-4.7198308295008928E-3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B36">
-        <v>14.03</v>
+        <v>14.02</v>
       </c>
       <c r="C36">
-        <v>2596.3776122926779</v>
+        <v>2601.7653361402604</v>
       </c>
       <c r="D36">
-        <v>13.619651686462811</v>
+        <v>13.955608147263868</v>
       </c>
       <c r="E36">
-        <v>-4.5223877073221956</v>
+        <v>2.2653361402603878</v>
       </c>
       <c r="F36">
-        <v>-0.41034831353718815</v>
+        <v>-6.4391852736131128E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2600.9</v>
+        <v>2599.5</v>
       </c>
       <c r="B37">
-        <v>16.03</v>
+        <v>16.02</v>
       </c>
       <c r="C37">
-        <v>2598.2078845357514</v>
+        <v>2602.3777652780659</v>
       </c>
       <c r="D37">
-        <v>15.506943725147183</v>
+        <v>15.889479465795342</v>
       </c>
       <c r="E37">
-        <v>-2.6921154642486727</v>
+        <v>2.8777652780659082</v>
       </c>
       <c r="F37">
-        <v>-0.52305627485281825</v>
+        <v>-0.13052053420465803</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2698.3646931420153</v>
+        <v>2699.7394960632969</v>
       </c>
       <c r="D38">
-        <v>8.2663780661254668E-2</v>
+        <v>3.6119751217994579E-2</v>
       </c>
       <c r="E38">
-        <v>-2.2353068579845967</v>
+        <v>0.53949606329706512</v>
       </c>
       <c r="F38">
-        <v>8.2663780661254668E-2</v>
+        <v>3.6119751217994579E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B39">
-        <v>-15.95</v>
+        <v>-15.9</v>
       </c>
       <c r="C39">
-        <v>2704.2751134506602</v>
+        <v>2701.2905182745312</v>
       </c>
       <c r="D39">
-        <v>-15.498601862143511</v>
+        <v>-16.023952068496943</v>
       </c>
       <c r="E39">
-        <v>3.6751134506603194</v>
+        <v>2.090518274531405</v>
       </c>
       <c r="F39">
-        <v>0.45139813785648819</v>
+        <v>-0.1239520684969424</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B40">
-        <v>-14.05</v>
+        <v>-14.08</v>
       </c>
       <c r="C40">
-        <v>2701.4650019616956</v>
+        <v>2700.5178003951487</v>
       </c>
       <c r="D40">
-        <v>-13.646963305761938</v>
+        <v>-14.189277805720456</v>
       </c>
       <c r="E40">
-        <v>0.86500196169572519</v>
+        <v>1.317800395148879</v>
       </c>
       <c r="F40">
-        <v>0.40303669423806276</v>
+        <v>-0.1092778057204562</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B41">
-        <v>-12</v>
+        <v>-12.05</v>
       </c>
       <c r="C41">
-        <v>2700.6271760366881</v>
+        <v>2700.4069483385042</v>
       </c>
       <c r="D41">
-        <v>-11.669886503780587</v>
+        <v>-12.157757230738998</v>
       </c>
       <c r="E41">
-        <v>2.7176036688160821E-2</v>
+        <v>1.2069483385043895</v>
       </c>
       <c r="F41">
-        <v>0.33011349621941299</v>
+        <v>-0.10775723073899712</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B42">
-        <v>-9.9700000000000006</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="C42">
-        <v>2699.9189460261678</v>
+        <v>2699.7713155522965</v>
       </c>
       <c r="D42">
-        <v>-9.7380126567007164</v>
+        <v>-10.135918559880791</v>
       </c>
       <c r="E42">
-        <v>-0.6810539738321495</v>
+        <v>0.57131555229670994</v>
       </c>
       <c r="F42">
-        <v>0.23198734329928428</v>
+        <v>-8.5918559880790113E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B43">
-        <v>-8.1</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="C43">
-        <v>2698.9441321921299</v>
+        <v>2699.1889637066806</v>
       </c>
       <c r="D43">
-        <v>-7.8161689945170716</v>
+        <v>-8.1040230944123923</v>
       </c>
       <c r="E43">
-        <v>-1.6558678078699813</v>
+        <v>-1.1036293319193646E-2</v>
       </c>
       <c r="F43">
-        <v>0.28383100548292806</v>
+        <v>-5.4023094412391615E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B44">
-        <v>-6</v>
+        <v>-6.03</v>
       </c>
       <c r="C44">
-        <v>2699.9108288142779</v>
+        <v>2700.266832461964</v>
       </c>
       <c r="D44">
-        <v>-5.7697791894140913</v>
+        <v>-6.0713917130325603</v>
       </c>
       <c r="E44">
-        <v>-0.68917118572198888</v>
+        <v>1.066832461964168</v>
       </c>
       <c r="F44">
-        <v>0.23022081058590871</v>
+        <v>-4.1391713032560062E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B45">
-        <v>-4</v>
+        <v>-4.05</v>
       </c>
       <c r="C45">
-        <v>2698.7072457777072</v>
+        <v>2700.2893660974223</v>
       </c>
       <c r="D45">
-        <v>-3.8068479635686243</v>
+        <v>-4.0563278577481148</v>
       </c>
       <c r="E45">
-        <v>-1.8927542222927514</v>
+        <v>1.0893660974224986</v>
       </c>
       <c r="F45">
-        <v>0.19315203643137568</v>
+        <v>-6.3278577481149512E-3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B46">
-        <v>-2</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="C46">
-        <v>2699.1952639832107</v>
+        <v>2701.6060029880582</v>
       </c>
       <c r="D46">
-        <v>-1.8322595553550183</v>
+        <v>-2.0090116486826513</v>
       </c>
       <c r="E46">
-        <v>-1.4047360167892293</v>
+        <v>2.4060029880583897</v>
       </c>
       <c r="F46">
-        <v>0.16774044464498172</v>
+        <v>4.098835131734857E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B47">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
       <c r="C47">
-        <v>2698.3984769160888</v>
+        <v>2699.8596536888545</v>
       </c>
       <c r="D47">
-        <v>0.13825741792637172</v>
+        <v>3.2587298816239271E-2</v>
       </c>
       <c r="E47">
-        <v>-2.20152308391107</v>
+        <v>0.65965368885463249</v>
       </c>
       <c r="F47">
-        <v>0.10825741792637172</v>
+        <v>6.258729881623927E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B48">
-        <v>2.0299999999999998</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>2698.8596679493035</v>
+        <v>2700.3499942704138</v>
       </c>
       <c r="D48">
-        <v>2.0832253581503037</v>
+        <v>2.0577000262653176</v>
       </c>
       <c r="E48">
-        <v>-1.7403320506964519</v>
+        <v>1.1499942704140267</v>
       </c>
       <c r="F48">
-        <v>5.3225358150303936E-2</v>
+        <v>5.7700026265317561E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B49">
-        <v>4.03</v>
+        <v>3.97</v>
       </c>
       <c r="C49">
-        <v>2697.4356268154484</v>
+        <v>2700.0603455786509</v>
       </c>
       <c r="D49">
-        <v>4.0226633667570342</v>
+        <v>4.0438780011403201</v>
       </c>
       <c r="E49">
-        <v>-3.1643731845515504</v>
+        <v>0.86034557865104944</v>
       </c>
       <c r="F49">
-        <v>-7.336633242966073E-3</v>
+        <v>7.3878001140319949E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B50">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="C50">
-        <v>2697.6301263461446</v>
+        <v>2700.1962190843642</v>
       </c>
       <c r="D50">
-        <v>5.9645049572753654</v>
+        <v>6.0618275148035856</v>
       </c>
       <c r="E50">
-        <v>-2.9698736538553021</v>
+        <v>0.99621908436438389</v>
       </c>
       <c r="F50">
-        <v>-6.54950427246348E-2</v>
+        <v>9.1827514803585863E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B51">
-        <v>8.0299999999999994</v>
+        <v>8.02</v>
       </c>
       <c r="C51">
-        <v>2696.9287592454994</v>
+        <v>2699.5481392444644</v>
       </c>
       <c r="D51">
-        <v>7.9027294558291512</v>
+        <v>8.067316139159562</v>
       </c>
       <c r="E51">
-        <v>-3.671240754500559</v>
+        <v>0.34813924446461897</v>
       </c>
       <c r="F51">
-        <v>-0.12727054417084815</v>
+        <v>4.7316139159562454E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B52">
-        <v>10.029999999999999</v>
+        <v>10</v>
       </c>
       <c r="C52">
-        <v>2696.5250501606092</v>
+        <v>2699.7746801296098</v>
       </c>
       <c r="D52">
-        <v>9.82812257701198</v>
+        <v>10.023331211516718</v>
       </c>
       <c r="E52">
-        <v>-4.0749498393906833</v>
+        <v>0.57468012960998749</v>
       </c>
       <c r="F52">
-        <v>-0.20187742298801936</v>
+        <v>2.3331211516717687E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B53">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>2695.6012632512775</v>
+        <v>2699.0939780336166</v>
       </c>
       <c r="D53">
-        <v>11.7501457143537</v>
+        <v>11.985138990852239</v>
       </c>
       <c r="E53">
-        <v>-4.9987367487224219</v>
+        <v>-0.10602196638319583</v>
       </c>
       <c r="F53">
-        <v>-0.27985428564629977</v>
+        <v>-1.486100914776145E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B54">
-        <v>14.05</v>
+        <v>14.02</v>
       </c>
       <c r="C54">
-        <v>2695.1611415067737</v>
+        <v>2700.9549432016001</v>
       </c>
       <c r="D54">
-        <v>13.671287143105722</v>
+        <v>13.949635762963844</v>
       </c>
       <c r="E54">
-        <v>-5.4388584932262347</v>
+        <v>1.7549432016003266</v>
       </c>
       <c r="F54">
-        <v>-0.37871285689427836</v>
+        <v>-7.0364237036155686E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2700.6</v>
+        <v>2699.2</v>
       </c>
       <c r="B55">
-        <v>16.03</v>
+        <v>16.02</v>
       </c>
       <c r="C55">
-        <v>2696.8644870702333</v>
+        <v>2701.7132576277204</v>
       </c>
       <c r="D55">
-        <v>15.536416700052326</v>
+        <v>15.872412297942427</v>
       </c>
       <c r="E55">
-        <v>-3.7355129297666281</v>
+        <v>2.5132576277205771</v>
       </c>
       <c r="F55">
-        <v>-0.4935832999476748</v>
+        <v>-0.14758770205757266</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2798.434690296137</v>
+        <v>2800.8803263114219</v>
       </c>
       <c r="D56">
-        <v>6.9109657934938673E-2</v>
+        <v>3.2129245793029691E-2</v>
       </c>
       <c r="E56">
-        <v>-1.865309703863204</v>
+        <v>1.9803263114217771</v>
       </c>
       <c r="F56">
-        <v>6.9109657934938673E-2</v>
+        <v>3.2129245793029691E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B57">
-        <v>-15.93</v>
+        <v>-15.9</v>
       </c>
       <c r="C57">
-        <v>2804.0794817167966</v>
+        <v>2800.7778112321171</v>
       </c>
       <c r="D57">
-        <v>-15.516553905808024</v>
+        <v>-16.039846119589889</v>
       </c>
       <c r="E57">
-        <v>3.7794817167964538</v>
+        <v>1.8778112321169829</v>
       </c>
       <c r="F57">
-        <v>0.41344609419197553</v>
+        <v>-0.13984611958988857</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B58">
-        <v>-14.05</v>
+        <v>-14.08</v>
       </c>
       <c r="C58">
-        <v>2802.0644656501063</v>
+        <v>2800.0966383928862</v>
       </c>
       <c r="D58">
-        <v>-13.686321636024344</v>
+        <v>-14.206147916686904</v>
       </c>
       <c r="E58">
-        <v>1.7644656501061036</v>
+        <v>1.1966383928861433</v>
       </c>
       <c r="F58">
-        <v>0.36367836397565689</v>
+        <v>-0.12614791668690373</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B59">
-        <v>-12</v>
+        <v>-12.05</v>
       </c>
       <c r="C59">
-        <v>2800.3532623291503</v>
+        <v>2799.4761194744024</v>
       </c>
       <c r="D59">
-        <v>-11.713859016439152</v>
+        <v>-12.166689339356285</v>
       </c>
       <c r="E59">
-        <v>5.3262329150129517E-2</v>
+        <v>0.57611947440227596</v>
       </c>
       <c r="F59">
-        <v>0.28614098356084838</v>
+        <v>-0.11668933935628445</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B60">
-        <v>-10</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="C60">
-        <v>2801.2920088936453</v>
+        <v>2800.4242516888316</v>
       </c>
       <c r="D60">
-        <v>-9.786017492566689</v>
+        <v>-10.149159264429903</v>
       </c>
       <c r="E60">
-        <v>0.99200889364510658</v>
+        <v>1.5242516888315549</v>
       </c>
       <c r="F60">
-        <v>0.21398250743331104</v>
+        <v>-9.9159264429902194E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B61">
-        <v>-8.08</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="C61">
-        <v>2800.2997531240417</v>
+        <v>2801.2927190385421</v>
       </c>
       <c r="D61">
-        <v>-7.8206361991808695</v>
+        <v>-8.1250274266916289</v>
       </c>
       <c r="E61">
-        <v>-2.4687595850991784E-4</v>
+        <v>2.3927190385420545</v>
       </c>
       <c r="F61">
-        <v>0.25936380081913057</v>
+        <v>-7.5027426691628207E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B62">
-        <v>-6</v>
+        <v>-6.03</v>
       </c>
       <c r="C62">
-        <v>2799.7064700217747</v>
+        <v>2800.4907165795653</v>
       </c>
       <c r="D62">
-        <v>-5.8107969263145733</v>
+        <v>-6.0885697788894975</v>
       </c>
       <c r="E62">
-        <v>-0.5935299782254333</v>
+        <v>1.5907165795651963</v>
       </c>
       <c r="F62">
-        <v>0.18920307368542666</v>
+        <v>-5.8569778889497215E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B63">
-        <v>-3.98</v>
+        <v>-4.05</v>
       </c>
       <c r="C63">
-        <v>2799.351610502059</v>
+        <v>2800.3006350270998</v>
       </c>
       <c r="D63">
-        <v>-3.8346578847867598</v>
+        <v>-4.0687957087452755</v>
       </c>
       <c r="E63">
-        <v>-0.94838949794120708</v>
+        <v>1.4006350270997245</v>
       </c>
       <c r="F63">
-        <v>0.14534211521324014</v>
+        <v>-1.8795708745275697E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B64">
-        <v>-2</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="C64">
-        <v>2798.9099798905922</v>
+        <v>2800.2355786279068</v>
       </c>
       <c r="D64">
-        <v>-1.8935440237855918</v>
+        <v>-2.0275186279605188</v>
       </c>
       <c r="E64">
-        <v>-1.3900201094079421</v>
+        <v>1.3355786279066706</v>
       </c>
       <c r="F64">
-        <v>0.10645597621440817</v>
+        <v>2.2481372039480974E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B65">
-        <v>0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="C65">
-        <v>2798.5554163120023</v>
+        <v>2800.6651301609495</v>
       </c>
       <c r="D65">
-        <v>8.6712957357315518E-2</v>
+        <v>2.7186566412698659E-2</v>
       </c>
       <c r="E65">
-        <v>-1.7445836879978742</v>
+        <v>1.7651301609494112</v>
       </c>
       <c r="F65">
-        <v>6.6712957357315514E-2</v>
+        <v>5.7186566412698661E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66">
-        <v>2798.3649026912512</v>
+        <v>2799.4426693185828</v>
       </c>
       <c r="D66">
-        <v>2.0311069448502712</v>
+        <v>2.0391679590270422</v>
       </c>
       <c r="E66">
-        <v>-1.9350973087489365</v>
+        <v>0.54266931858273892</v>
       </c>
       <c r="F66">
-        <v>3.1106944850271212E-2</v>
+        <v>3.9167959027042176E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B67">
-        <v>4.05</v>
+        <v>3.97</v>
       </c>
       <c r="C67">
-        <v>2798.0420759217236</v>
+        <v>2801.504687442196</v>
       </c>
       <c r="D67">
-        <v>4.0046578965648889</v>
+        <v>4.0320804042253844</v>
       </c>
       <c r="E67">
-        <v>-2.2579240782765737</v>
+        <v>2.6046874421958819</v>
       </c>
       <c r="F67">
-        <v>-4.5342103435110914E-2</v>
+        <v>6.2080404225384189E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>5.97</v>
       </c>
       <c r="C68">
-        <v>2797.8837191131979</v>
+        <v>2798.6184625032224</v>
       </c>
       <c r="D68">
-        <v>5.9288040441673884</v>
+        <v>6.0524354718802416</v>
       </c>
       <c r="E68">
-        <v>-2.4162808868022694</v>
+        <v>-0.28153749677767337</v>
       </c>
       <c r="F68">
-        <v>-7.1195955832611624E-2</v>
+        <v>8.2435471880241806E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B69">
-        <v>8.0500000000000007</v>
+        <v>8.02</v>
       </c>
       <c r="C69">
-        <v>2796.3437555203332</v>
+        <v>2799.5781353415218</v>
       </c>
       <c r="D69">
-        <v>7.8953279006915436</v>
+        <v>8.0544890865969165</v>
       </c>
       <c r="E69">
-        <v>-3.9562444796670206</v>
+        <v>0.67813534152173816</v>
       </c>
       <c r="F69">
-        <v>-0.15467209930845716</v>
+        <v>3.4489086596916962E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B70">
-        <v>10.02</v>
+        <v>10</v>
       </c>
       <c r="C70">
-        <v>2795.2185560685675</v>
+        <v>2799.3825104543675</v>
       </c>
       <c r="D70">
-        <v>9.8119033403097013</v>
+        <v>10.007015571976217</v>
       </c>
       <c r="E70">
-        <v>-5.0814439314326592</v>
+        <v>0.48251045436745699</v>
       </c>
       <c r="F70">
-        <v>-0.20809665969029822</v>
+        <v>7.0155719762166058E-3</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B71">
-        <v>12.05</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>2794.9350241648995</v>
+        <v>2798.8043846635983</v>
       </c>
       <c r="D71">
-        <v>11.726036596960958</v>
+        <v>11.976465101489993</v>
       </c>
       <c r="E71">
-        <v>-5.3649758351007222</v>
+        <v>-9.5615336401806417E-2</v>
       </c>
       <c r="F71">
-        <v>-0.32396340303904303</v>
+        <v>-2.3534898510007451E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B72">
         <v>14.02</v>
       </c>
       <c r="C72">
-        <v>2795.2002322709527</v>
+        <v>2799.8492568191755</v>
       </c>
       <c r="D72">
-        <v>13.605936449404753</v>
+        <v>13.928807300189728</v>
       </c>
       <c r="E72">
-        <v>-5.0997677290474712</v>
+        <v>0.94925681917538896</v>
       </c>
       <c r="F72">
-        <v>-0.41406355059524635</v>
+        <v>-9.1192699810271449E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2800.3</v>
+        <v>2798.9</v>
       </c>
       <c r="B73">
         <v>16.02</v>
       </c>
       <c r="C73">
-        <v>2796.0202103242846</v>
+        <v>2801.0779434932711</v>
       </c>
       <c r="D73">
-        <v>15.538425443584963</v>
+        <v>15.850479151505525</v>
       </c>
       <c r="E73">
-        <v>-4.2797896757156195</v>
+        <v>2.1779434932709592</v>
       </c>
       <c r="F73">
-        <v>-0.48157455641503688</v>
+        <v>-0.16952084849447502</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>2899.3478976246874</v>
+        <v>2900.3769722976713</v>
       </c>
       <c r="D74">
-        <v>4.7911285838327398E-2</v>
+        <v>2.5644763543003962E-2</v>
       </c>
       <c r="E74">
-        <v>-0.65210237531255189</v>
+        <v>1.7769722976713638</v>
       </c>
       <c r="F74">
-        <v>4.7911285838327398E-2</v>
+        <v>2.5644763543003962E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B75">
-        <v>-15.95</v>
+        <v>-15.92</v>
       </c>
       <c r="C75">
-        <v>2903.1005349103184</v>
+        <v>2901.2105284596137</v>
       </c>
       <c r="D75">
-        <v>-15.53735434068699</v>
+        <v>-16.050509488770874</v>
       </c>
       <c r="E75">
-        <v>3.1005349103184017</v>
+        <v>2.6105284596137608</v>
       </c>
       <c r="F75">
-        <v>0.41264565931300901</v>
+        <v>-0.13050948877087443</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B76">
-        <v>-14.03</v>
+        <v>-14.07</v>
       </c>
       <c r="C76">
-        <v>2900.6094276205777</v>
+        <v>2899.7016971785624</v>
       </c>
       <c r="D76">
-        <v>-13.687143688150371</v>
+        <v>-14.200656613394067</v>
       </c>
       <c r="E76">
-        <v>0.60942762057766231</v>
+        <v>1.1016971785625174</v>
       </c>
       <c r="F76">
-        <v>0.34285631184962817</v>
+        <v>-0.13065661339406631</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B77">
-        <v>-12</v>
+        <v>-12.05</v>
       </c>
       <c r="C77">
-        <v>2900.1136958276711</v>
+        <v>2899.5666080743549</v>
       </c>
       <c r="D77">
-        <v>-11.751252227319188</v>
+        <v>-12.166429797715326</v>
       </c>
       <c r="E77">
-        <v>0.11369582767110842</v>
+        <v>0.96660807435500828</v>
       </c>
       <c r="F77">
-        <v>0.24874777268081161</v>
+        <v>-0.11642979771532502</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B78">
-        <v>-10</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="C78">
-        <v>2900.8049787858668</v>
+        <v>2898.8020896490161</v>
       </c>
       <c r="D78">
-        <v>-9.8070246935376026</v>
+        <v>-10.153318285774105</v>
       </c>
       <c r="E78">
-        <v>0.80497878586675142</v>
+        <v>0.20208964901621584</v>
       </c>
       <c r="F78">
-        <v>0.19297530646239736</v>
+        <v>-0.10331828577410462</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B79">
-        <v>-8.08</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="C79">
-        <v>2899.7212762971844</v>
+        <v>2899.8777058031433</v>
       </c>
       <c r="D79">
-        <v>-7.854131248955758</v>
+        <v>-8.124306060410877</v>
       </c>
       <c r="E79">
-        <v>-0.27872370281556869</v>
+        <v>1.2777058031433626</v>
       </c>
       <c r="F79">
-        <v>0.22586875104424209</v>
+        <v>-7.4306060410876285E-2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B80">
-        <v>-6</v>
+        <v>-6.05</v>
       </c>
       <c r="C80">
-        <v>2899.7944912474054</v>
+        <v>2900.5930097661385</v>
       </c>
       <c r="D80">
-        <v>-5.8169124963603176</v>
+        <v>-6.0898517169275559</v>
       </c>
       <c r="E80">
-        <v>-0.20550875259459644</v>
+        <v>1.9930097661385844</v>
       </c>
       <c r="F80">
-        <v>0.1830875036396824</v>
+        <v>-3.9851716927556069E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B81">
-        <v>-3.98</v>
+        <v>-4.05</v>
       </c>
       <c r="C81">
-        <v>2899.0140921928341</v>
+        <v>2899.4624530338083</v>
       </c>
       <c r="D81">
-        <v>-3.8548123783604242</v>
+        <v>-4.0575743245616271</v>
       </c>
       <c r="E81">
-        <v>-0.98590780716585869</v>
+        <v>0.86245303380837868</v>
       </c>
       <c r="F81">
-        <v>0.12518762163957575</v>
+        <v>-7.5743245616273214E-3</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B82">
-        <v>-2</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="C82">
-        <v>2899.2941289372325</v>
+        <v>2899.7473279726287</v>
       </c>
       <c r="D82">
-        <v>-1.9031965489686042</v>
+        <v>-2.0126088176651051</v>
       </c>
       <c r="E82">
-        <v>-0.7058710627675282</v>
+        <v>1.1473279726287728</v>
       </c>
       <c r="F82">
-        <v>9.680345103139576E-2</v>
+        <v>3.739118233489469E-2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B83">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
       <c r="C83">
-        <v>2899.4931522011771</v>
+        <v>2900.4395584041508</v>
       </c>
       <c r="D83">
-        <v>7.3011853201866317E-2</v>
+        <v>3.8721917034706926E-2</v>
       </c>
       <c r="E83">
-        <v>-0.50684779882294606</v>
+        <v>1.839558404150921</v>
       </c>
       <c r="F83">
-        <v>5.3011853201866313E-2</v>
+        <v>5.872191703470693E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="C84">
-        <v>2898.1470678623737</v>
+        <v>2900.4053441504743</v>
       </c>
       <c r="D84">
-        <v>2.022331376692883</v>
+        <v>2.0532488008991714</v>
       </c>
       <c r="E84">
-        <v>-1.8529321376263397</v>
+        <v>1.8053441504744114</v>
       </c>
       <c r="F84">
-        <v>2.2331376692882987E-2</v>
+        <v>7.3248800899171407E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B85">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="C85">
-        <v>2897.5528680097368</v>
+        <v>2901.3749834481828</v>
       </c>
       <c r="D85">
-        <v>3.9906405312631934</v>
+        <v>4.069087187266228</v>
       </c>
       <c r="E85">
-        <v>-2.4471319902631876</v>
+        <v>2.7749834481828657</v>
       </c>
       <c r="F85">
-        <v>-5.935946873680642E-2</v>
+        <v>6.9087187266227978E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="C86">
-        <v>2896.9980520093868</v>
+        <v>2899.3110007789751</v>
       </c>
       <c r="D86">
-        <v>5.9128539956501713</v>
+        <v>6.0595340184866471</v>
       </c>
       <c r="E86">
-        <v>-3.0019479906131892</v>
+        <v>0.71100077897517622</v>
       </c>
       <c r="F86">
-        <v>-8.7146004349828665E-2</v>
+        <v>7.9534018486646652E-2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B87">
-        <v>8.0500000000000007</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="C87">
-        <v>2895.5497398006437</v>
+        <v>2899.7647583035937</v>
       </c>
       <c r="D87">
-        <v>7.8827649673087805</v>
+        <v>8.0628026551363359</v>
       </c>
       <c r="E87">
-        <v>-4.4502601993563076</v>
+        <v>1.1647583035937714</v>
       </c>
       <c r="F87">
-        <v>-0.1672350326912202</v>
+        <v>3.2802655136336512E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B88">
-        <v>10.02</v>
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>2894.9456070870228</v>
+        <v>2898.9178531519324</v>
       </c>
       <c r="D88">
-        <v>9.7970146023053211</v>
+        <v>10.00787766266898</v>
       </c>
       <c r="E88">
-        <v>-5.0543929129771641</v>
+        <v>0.31785315193246788</v>
       </c>
       <c r="F88">
-        <v>-0.22298539769467851</v>
+        <v>7.8776626689798235E-3</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B89">
-        <v>12.02</v>
+        <v>12</v>
       </c>
       <c r="C89">
-        <v>2893.4987794835401</v>
+        <v>2897.5532731303797</v>
       </c>
       <c r="D89">
-        <v>11.722851384275256</v>
+        <v>11.971405217667618</v>
       </c>
       <c r="E89">
-        <v>-6.5012205164598527</v>
+        <v>-1.0467268696202154</v>
       </c>
       <c r="F89">
-        <v>-0.29714861572474405</v>
+        <v>-2.8594782332381996E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B90">
-        <v>14.05</v>
+        <v>14.03</v>
       </c>
       <c r="C90">
-        <v>2892.6475511691642</v>
+        <v>2899.2711278016482</v>
       </c>
       <c r="D90">
-        <v>13.641914706300009</v>
+        <v>13.550152680114502</v>
       </c>
       <c r="E90">
-        <v>-7.3524488308357832</v>
+        <v>0.67112780164825381</v>
       </c>
       <c r="F90">
-        <v>-0.40808529369999214</v>
+        <v>-0.47984731988549711</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>2900</v>
+        <v>2898.6</v>
       </c>
       <c r="B91">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="C91">
-        <v>2893.5723519593457</v>
+        <v>2900.8252643366523</v>
       </c>
       <c r="D91">
-        <v>15.541189915915712</v>
+        <v>15.860231239786035</v>
       </c>
       <c r="E91">
-        <v>-6.427648040654276</v>
+        <v>2.2252643366523444</v>
       </c>
       <c r="F91">
-        <v>-0.47881008408428727</v>
+        <v>-0.13976876021396478</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>2998.441426027292</v>
+        <v>3000.3643203389984</v>
       </c>
       <c r="D92">
-        <v>1.5361042632958025E-2</v>
+        <v>1.5057150163830942E-2</v>
       </c>
       <c r="E92">
-        <v>-1.1585739727079272</v>
+        <v>2.0643203389981863</v>
       </c>
       <c r="F92">
-        <v>1.5361042632958025E-2</v>
+        <v>1.5057150163830942E-2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B93">
-        <v>-15.95</v>
+        <v>-15.92</v>
       </c>
       <c r="C93">
-        <v>3001.7724425970723</v>
+        <v>2998.5517484717261</v>
       </c>
       <c r="D93">
-        <v>-15.569280351585478</v>
+        <v>-16.07376360482078</v>
       </c>
       <c r="E93">
-        <v>2.1724425970724042</v>
+        <v>0.25174847172593218</v>
       </c>
       <c r="F93">
-        <v>0.38071964841452122</v>
+        <v>-0.15376360482077978</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B94">
-        <v>-14.05</v>
+        <v>-14.07</v>
       </c>
       <c r="C94">
-        <v>2999.9501160271448</v>
+        <v>2999.5433688836456</v>
       </c>
       <c r="D94">
-        <v>-13.719880649032522</v>
+        <v>-14.216306475121526</v>
       </c>
       <c r="E94">
-        <v>0.3501160271448498</v>
+        <v>1.2433688836454166</v>
       </c>
       <c r="F94">
-        <v>0.33011935096747891</v>
+        <v>-0.14630647512152528</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B95">
-        <v>-12</v>
+        <v>-12.05</v>
       </c>
       <c r="C95">
-        <v>2998.527665734021</v>
+        <v>2999.4822903527443</v>
       </c>
       <c r="D95">
-        <v>-11.750798869714021</v>
+        <v>-12.17549736326661</v>
       </c>
       <c r="E95">
-        <v>-1.0723342659789523</v>
+        <v>1.1822903527440758</v>
       </c>
       <c r="F95">
-        <v>0.24920113028597868</v>
+        <v>-0.12549736326660899</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B96">
-        <v>-9.98</v>
+        <v>-10.050000000000001</v>
       </c>
       <c r="C96">
-        <v>2998.9993854534323</v>
+        <v>2999.7765021564078</v>
       </c>
       <c r="D96">
-        <v>-9.8126825306830998</v>
+        <v>-10.160013294769362</v>
       </c>
       <c r="E96">
-        <v>-0.60061454656761271</v>
+        <v>1.4765021564076051</v>
       </c>
       <c r="F96">
-        <v>0.16731746931690061</v>
+        <v>-0.11001329476936128</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B97">
-        <v>-8.08</v>
+        <v>-8.0500000000000007</v>
       </c>
       <c r="C97">
-        <v>2998.2891372751469</v>
+        <v>2999.3078558998513</v>
       </c>
       <c r="D97">
-        <v>-7.8740586755988993</v>
+        <v>-8.1390430003391607</v>
       </c>
       <c r="E97">
-        <v>-1.3108627248529956</v>
+        <v>1.0078558998511653</v>
       </c>
       <c r="F97">
-        <v>0.2059413244011008</v>
+        <v>-8.9043000339160017E-2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B98">
-        <v>-6</v>
+        <v>-6.05</v>
       </c>
       <c r="C98">
-        <v>2999.3432352678242</v>
+        <v>3001.0061101565129</v>
       </c>
       <c r="D98">
-        <v>-5.8464131274997673</v>
+        <v>-6.1023915520248426</v>
       </c>
       <c r="E98">
-        <v>-0.25676473217572493</v>
+        <v>2.7061101565127501</v>
       </c>
       <c r="F98">
-        <v>0.15358687250023273</v>
+        <v>-5.2391552024842802E-2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B99">
-        <v>-3.98</v>
+        <v>-4.05</v>
       </c>
       <c r="C99">
-        <v>2998.489051608195</v>
+        <v>2998.8989879940373</v>
       </c>
       <c r="D99">
-        <v>-3.8727850744232715</v>
+        <v>-4.0694592583499976</v>
       </c>
       <c r="E99">
-        <v>-1.1109483918048682</v>
+        <v>0.59898799403708836</v>
       </c>
       <c r="F99">
-        <v>0.10721492557672851</v>
+        <v>-1.9459258349997732E-2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B100">
-        <v>-2</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="C100">
-        <v>2998.0438423264359</v>
+        <v>2999.3042650644925</v>
       </c>
       <c r="D100">
-        <v>-1.9307904938041538</v>
+        <v>-2.0303986662569247</v>
       </c>
       <c r="E100">
-        <v>-1.5561576735640301</v>
+        <v>1.0042650644923015</v>
       </c>
       <c r="F100">
-        <v>6.9209506195846204E-2</v>
+        <v>1.9601333743075156E-2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B101">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
       <c r="C101">
-        <v>2998.0872485327691</v>
+        <v>2999.97539996352</v>
       </c>
       <c r="D101">
-        <v>5.0236111575726522E-2</v>
+        <v>2.8525179126846954E-2</v>
       </c>
       <c r="E101">
-        <v>-1.512751467230828</v>
+        <v>1.6753999635197943</v>
       </c>
       <c r="F101">
-        <v>3.0236111575726522E-2</v>
+        <v>4.8525179126846951E-2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B102">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="C102">
-        <v>2997.5725165573599</v>
+        <v>2999.9898352588521</v>
       </c>
       <c r="D102">
-        <v>2.0004891094311117</v>
+        <v>2.0374303660053918</v>
       </c>
       <c r="E102">
-        <v>-2.0274834426400048</v>
+        <v>1.6898352588518719</v>
       </c>
       <c r="F102">
-        <v>-1.9510890568888328E-2</v>
+        <v>5.7430366005391864E-2</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B103">
-        <v>4.0199999999999996</v>
+        <v>4</v>
       </c>
       <c r="C103">
-        <v>2996.35221629222</v>
+        <v>3000.6549131023721</v>
       </c>
       <c r="D103">
-        <v>3.9529944534070589</v>
+        <v>4.0582670195705655</v>
       </c>
       <c r="E103">
-        <v>-3.247783707779945</v>
+        <v>2.3549131023719383</v>
       </c>
       <c r="F103">
-        <v>-6.7005546592940668E-2</v>
+        <v>5.8267019570565459E-2</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B104">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="C104">
-        <v>2996.0507509759786</v>
+        <v>2998.2806949277015</v>
       </c>
       <c r="D104">
-        <v>5.8962311574675033</v>
+        <v>6.0452320111042148</v>
       </c>
       <c r="E104">
-        <v>-3.5492490240212646</v>
+        <v>-1.9305072298720916E-2</v>
       </c>
       <c r="F104">
-        <v>-0.10376884253249674</v>
+        <v>6.5232011104214394E-2</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B105">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="C105">
-        <v>2994.1202444303026</v>
+        <v>3000.0933106140101</v>
       </c>
       <c r="D105">
-        <v>7.876231151793287</v>
+        <v>8.0481861286433904</v>
       </c>
       <c r="E105">
-        <v>-5.4797555696973177</v>
+        <v>1.7933106140098971</v>
       </c>
       <c r="F105">
-        <v>-0.19376884820671325</v>
+        <v>4.8186128643390447E-2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B106">
-        <v>10</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="C106">
-        <v>2992.9666443086294</v>
+        <v>2997.5268754077238</v>
       </c>
       <c r="D106">
-        <v>9.761056517850335</v>
+        <v>10.030531730870583</v>
       </c>
       <c r="E106">
-        <v>-6.6333556913705252</v>
+        <v>-0.77312459227641739</v>
       </c>
       <c r="F106">
-        <v>-0.23894348214966499</v>
+        <v>5.3173087058411284E-4</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B107">
-        <v>12.05</v>
+        <v>12</v>
       </c>
       <c r="C107">
-        <v>2991.0830076261036</v>
+        <v>2999.0005597604827</v>
       </c>
       <c r="D107">
-        <v>11.722593830203429</v>
+        <v>11.974983279369319</v>
       </c>
       <c r="E107">
-        <v>-8.5169923738963007</v>
+        <v>0.70055976048251978</v>
       </c>
       <c r="F107">
-        <v>-0.32740616979657133</v>
+        <v>-2.5016720630681277E-2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B108">
-        <v>14.02</v>
+        <v>14.03</v>
       </c>
       <c r="C108">
-        <v>2990.822793606003</v>
+        <v>2998.1427517559932</v>
       </c>
       <c r="D108">
-        <v>13.624064182738859</v>
+        <v>13.928292055651138</v>
       </c>
       <c r="E108">
-        <v>-8.7772063939969485</v>
+        <v>-0.1572482440069507</v>
       </c>
       <c r="F108">
-        <v>-0.39593581726114024</v>
+        <v>-0.10170794434886155</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>2999.6</v>
+        <v>2998.3</v>
       </c>
       <c r="B109">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="C109">
-        <v>2990.7038430491839</v>
+        <v>2999.7381522207638</v>
       </c>
       <c r="D109">
-        <v>15.539745492483991</v>
+        <v>15.853330035211696</v>
       </c>
       <c r="E109">
-        <v>-8.896156950816021</v>
+        <v>1.4381522207636408</v>
       </c>
       <c r="F109">
-        <v>-0.48025450751600829</v>
+        <v>-0.14666996478830363</v>
       </c>
     </row>
   </sheetData>
